--- a/Financial Analysis/FOUR.xlsx
+++ b/Financial Analysis/FOUR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDF078F-6A7B-4258-A045-FFF7589382C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400851A3-D9F8-4158-B41F-C7C4F0F8B80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9FA048E8-CD64-4FE4-A115-46129781B051}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9FA048E8-CD64-4FE4-A115-46129781B051}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>FOUR</t>
   </si>
@@ -223,7 +223,7 @@
     <t>Consensus</t>
   </si>
   <si>
-    <t>Fairly valued</t>
+    <t>Overvalued</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,7 +300,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -324,14 +323,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
@@ -348,7 +347,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9364980" y="7620"/>
+          <a:off x="9982200" y="7620"/>
           <a:ext cx="0" cy="7231380"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -724,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE374E81-96ED-46CE-A3C1-5B881134D282}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,17 +751,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>73.5</v>
+        <v>82.36</v>
       </c>
       <c r="E3" s="3">
-        <v>45756</v>
+        <v>45781</v>
       </c>
       <c r="F3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45756</v>
+        <v>45781</v>
       </c>
       <c r="G3" s="3">
-        <v>45778</v>
+        <v>45867</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -773,6 +772,9 @@
         <f>67.8+19.8+1.5</f>
         <v>89.1</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -780,7 +782,7 @@
       </c>
       <c r="D5" s="5">
         <f>D3*D4</f>
-        <v>6548.8499999999995</v>
+        <v>7338.2759999999998</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -788,8 +790,11 @@
         <v>5</v>
       </c>
       <c r="D6" s="5">
-        <f>1211.9</f>
-        <v>1211.9000000000001</v>
+        <f>1167.3</f>
+        <v>1167.3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -797,8 +802,11 @@
         <v>6</v>
       </c>
       <c r="D7" s="5">
-        <f>686.9+2154.1</f>
-        <v>2841</v>
+        <f>687.8+2155.7</f>
+        <v>2843.5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -807,7 +815,7 @@
       </c>
       <c r="D8" s="5">
         <f>D6-D7</f>
-        <v>-1629.1</v>
+        <v>-1676.2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -816,7 +824,7 @@
       </c>
       <c r="D9" s="5">
         <f>D5-D8</f>
-        <v>8177.9499999999989</v>
+        <v>9014.4760000000006</v>
       </c>
     </row>
   </sheetData>
@@ -828,11 +836,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33074867-C015-4EB5-A6A7-44303FBA5A30}">
   <dimension ref="B2:EP37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="X11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="AO37" sqref="AO37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,8 +980,7 @@
         <v>887</v>
       </c>
       <c r="O3" s="8">
-        <f>K3*1.23</f>
-        <v>870.10199999999998</v>
+        <v>848.3</v>
       </c>
       <c r="P3" s="8">
         <f>L3*1.15</f>
@@ -997,47 +1004,47 @@
       </c>
       <c r="AA3" s="8">
         <f>SUM(O3:R3)</f>
-        <v>3886.7820000000002</v>
+        <v>3864.9799999999996</v>
       </c>
       <c r="AB3" s="8">
-        <f>AA3*1.12</f>
-        <v>4353.1958400000003</v>
+        <f>AA3*1.11</f>
+        <v>4290.1278000000002</v>
       </c>
       <c r="AC3" s="8">
-        <f>AB3*1.08</f>
-        <v>4701.4515072000004</v>
+        <f>AB3*1.07</f>
+        <v>4590.4367460000003</v>
       </c>
       <c r="AD3" s="8">
-        <f>AC3*1.06</f>
-        <v>4983.5385976320003</v>
+        <f>AC3*1.05</f>
+        <v>4819.9585833000001</v>
       </c>
       <c r="AE3" s="8">
-        <f>AD3*1.05</f>
-        <v>5232.7155275136001</v>
+        <f>AD3*1.04</f>
+        <v>5012.7569266320006</v>
       </c>
       <c r="AF3" s="8">
-        <f>AE3*1.04</f>
-        <v>5442.024148614144</v>
+        <f>AE3*1.03</f>
+        <v>5163.1396344309605</v>
       </c>
       <c r="AG3" s="8">
         <f>AF3*1.03</f>
-        <v>5605.2848730725682</v>
+        <v>5318.0338234638893</v>
       </c>
       <c r="AH3" s="8">
         <f t="shared" ref="AH3:AK3" si="1">AG3*1.03</f>
-        <v>5773.443419264745</v>
+        <v>5477.5748381678059</v>
       </c>
       <c r="AI3" s="8">
         <f t="shared" si="1"/>
-        <v>5946.6467218426878</v>
+        <v>5641.9020833128397</v>
       </c>
       <c r="AJ3" s="8">
         <f t="shared" si="1"/>
-        <v>6125.0461234979684</v>
+        <v>5811.1591458122248</v>
       </c>
       <c r="AK3" s="8">
         <f t="shared" si="1"/>
-        <v>6308.7975072029076</v>
+        <v>5985.4939201865918</v>
       </c>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.3">
@@ -1069,72 +1076,71 @@
         <v>600.79999999999995</v>
       </c>
       <c r="O4" s="5">
-        <f>O3-O5</f>
-        <v>582.9683399999999</v>
+        <v>591.29999999999995</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" ref="P4:R4" si="2">P3-P5</f>
-        <v>637.20349999999996</v>
+        <v>646.71399999999994</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" si="2"/>
-        <v>690.08279999999991</v>
+        <v>700.53859999999986</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" si="2"/>
-        <v>663.03250000000003</v>
-      </c>
-      <c r="Y4" s="9">
+        <v>673.23299999999995</v>
+      </c>
+      <c r="Y4" s="5">
         <f>SUM(G4:J4)</f>
         <v>1877.0000000000002</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="5">
         <f>SUM(K4:N4)</f>
         <v>2357.5</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="5">
         <f>SUM(O4:R4)</f>
-        <v>2573.2871399999999</v>
+        <v>2611.7855999999997</v>
       </c>
       <c r="AB4" s="5">
         <f>AB3-AB5</f>
-        <v>2786.0453376000005</v>
+        <v>2831.484348</v>
       </c>
       <c r="AC4" s="5">
         <f t="shared" ref="AC4:AK4" si="3">AC3-AC5</f>
-        <v>2914.8999344640001</v>
+        <v>2937.8795174400002</v>
       </c>
       <c r="AD4" s="5">
         <f t="shared" si="3"/>
-        <v>3039.9585445555203</v>
+        <v>3036.5739074789999</v>
       </c>
       <c r="AE4" s="5">
         <f t="shared" si="3"/>
-        <v>3139.6293165081602</v>
+        <v>3107.9092945118405</v>
       </c>
       <c r="AF4" s="5">
         <f t="shared" si="3"/>
-        <v>3265.2144891684861</v>
+        <v>3149.515177002886</v>
       </c>
       <c r="AG4" s="5">
         <f t="shared" si="3"/>
-        <v>3363.170923843541</v>
+        <v>3190.8202940783335</v>
       </c>
       <c r="AH4" s="5">
         <f t="shared" si="3"/>
-        <v>3464.066051558847</v>
+        <v>3286.5449029006836</v>
       </c>
       <c r="AI4" s="5">
         <f t="shared" si="3"/>
-        <v>3567.9880331056124</v>
+        <v>3385.1412499877038</v>
       </c>
       <c r="AJ4" s="5">
         <f t="shared" si="3"/>
-        <v>3675.0276740987811</v>
+        <v>3486.695487487335</v>
       </c>
       <c r="AK4" s="5">
         <f t="shared" si="3"/>
-        <v>3785.2785043217445</v>
+        <v>3591.296352111955</v>
       </c>
     </row>
     <row r="5" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1142,52 +1148,52 @@
         <v>13</v>
       </c>
       <c r="G5" s="8">
-        <f>G3-G4</f>
+        <f t="shared" ref="G5:O5" si="4">G3-G4</f>
         <v>145.39999999999998</v>
       </c>
       <c r="H5" s="8">
-        <f>H3-H4</f>
+        <f t="shared" si="4"/>
         <v>166.89999999999998</v>
       </c>
       <c r="I5" s="8">
-        <f>I3-I4</f>
+        <f t="shared" si="4"/>
         <v>180.29999999999995</v>
       </c>
       <c r="J5" s="8">
-        <f>J3-J4</f>
+        <f t="shared" si="4"/>
         <v>195.2</v>
       </c>
       <c r="K5" s="8">
-        <f>K3-K4</f>
+        <f t="shared" si="4"/>
         <v>187.79999999999995</v>
       </c>
       <c r="L5" s="8">
-        <f>L3-L4</f>
+        <f t="shared" si="4"/>
         <v>231.79999999999995</v>
       </c>
       <c r="M5" s="8">
-        <f>M3-M4</f>
+        <f t="shared" si="4"/>
         <v>267.30000000000007</v>
       </c>
       <c r="N5" s="8">
-        <f>N3-N4</f>
+        <f t="shared" si="4"/>
         <v>286.20000000000005</v>
       </c>
       <c r="O5" s="8">
-        <f>O3*0.33</f>
-        <v>287.13366000000002</v>
+        <f t="shared" si="4"/>
+        <v>257</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" ref="P5:R5" si="4">P3*0.33</f>
-        <v>313.84649999999999</v>
+        <f>P3*0.32</f>
+        <v>304.33600000000001</v>
       </c>
       <c r="Q5" s="8">
-        <f>Q3*0.34</f>
-        <v>355.49720000000002</v>
+        <f>Q3*0.33</f>
+        <v>345.04140000000001</v>
       </c>
       <c r="R5" s="8">
-        <f>R3*0.35</f>
-        <v>357.01749999999998</v>
+        <f>R3*0.34</f>
+        <v>346.81700000000001</v>
       </c>
       <c r="Y5" s="8">
         <f>Y3-Y4</f>
@@ -1199,47 +1205,47 @@
       </c>
       <c r="AA5" s="8">
         <f>AA3-AA4</f>
-        <v>1313.4948600000002</v>
+        <v>1253.1943999999999</v>
       </c>
       <c r="AB5" s="8">
-        <f>AB3*0.36</f>
-        <v>1567.1505024000001</v>
+        <f>AB3*0.34</f>
+        <v>1458.6434520000003</v>
       </c>
       <c r="AC5" s="8">
-        <f>AC3*0.38</f>
-        <v>1786.5515727360003</v>
+        <f>AC3*0.36</f>
+        <v>1652.5572285600001</v>
       </c>
       <c r="AD5" s="8">
-        <f>AD3*0.39</f>
-        <v>1943.5800530764802</v>
+        <f>AD3*0.37</f>
+        <v>1783.384675821</v>
       </c>
       <c r="AE5" s="8">
-        <f>AE3*0.4</f>
-        <v>2093.08621100544</v>
+        <f>AE3*0.38</f>
+        <v>1904.8476321201601</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" ref="AF5:AK5" si="5">AF3*0.4</f>
-        <v>2176.8096594456579</v>
+        <f>AF3*0.39</f>
+        <v>2013.6244574280747</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" si="5"/>
-        <v>2242.1139492290272</v>
+        <f>AG3*0.4</f>
+        <v>2127.2135293855558</v>
       </c>
       <c r="AH5" s="8">
-        <f t="shared" si="5"/>
-        <v>2309.377367705898</v>
+        <f t="shared" ref="AH5:AK5" si="5">AH3*0.4</f>
+        <v>2191.0299352671223</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" si="5"/>
-        <v>2378.6586887370754</v>
+        <v>2256.760833325136</v>
       </c>
       <c r="AJ5" s="8">
         <f t="shared" si="5"/>
-        <v>2450.0184493991874</v>
+        <v>2324.4636583248898</v>
       </c>
       <c r="AK5" s="8">
         <f t="shared" si="5"/>
-        <v>2523.519002881163</v>
+        <v>2394.1975680746368</v>
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.3">
@@ -1271,8 +1277,7 @@
         <v>124.1</v>
       </c>
       <c r="O6" s="5">
-        <f>K6*1.3</f>
-        <v>139.22999999999999</v>
+        <v>154</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" ref="P6:R6" si="6">L6*1.3</f>
@@ -1286,57 +1291,57 @@
         <f t="shared" si="6"/>
         <v>161.32999999999998</v>
       </c>
-      <c r="Y6" s="9">
-        <f>SUM(G6:J6)</f>
+      <c r="Y6" s="5">
+        <f t="shared" ref="Y6:Y11" si="7">SUM(G6:J6)</f>
         <v>329.3</v>
       </c>
-      <c r="Z6" s="9">
-        <f>SUM(K6:N6)</f>
+      <c r="Z6" s="5">
+        <f t="shared" ref="Z6:Z11" si="8">SUM(K6:N6)</f>
         <v>459.5</v>
       </c>
-      <c r="AA6" s="9">
-        <f>SUM(O6:R6)</f>
-        <v>597.34999999999991</v>
+      <c r="AA6" s="5">
+        <f t="shared" ref="AA6:AA11" si="9">SUM(O6:R6)</f>
+        <v>612.11999999999989</v>
       </c>
       <c r="AB6" s="5">
         <f>AA6*1.2</f>
-        <v>716.81999999999982</v>
+        <v>734.54399999999987</v>
       </c>
       <c r="AC6" s="5">
         <f>AB6*1.1</f>
-        <v>788.50199999999984</v>
+        <v>807.99839999999995</v>
       </c>
       <c r="AD6" s="5">
         <f>AC6*1.05</f>
-        <v>827.92709999999988</v>
+        <v>848.39832000000001</v>
       </c>
       <c r="AE6" s="5">
         <f>AD6*1.04</f>
-        <v>861.04418399999986</v>
+        <v>882.33425280000006</v>
       </c>
       <c r="AF6" s="5">
         <f>AE6*1.03</f>
-        <v>886.87550951999992</v>
+        <v>908.80428038400009</v>
       </c>
       <c r="AG6" s="5">
         <f>AF6*1.02</f>
-        <v>904.61301971039995</v>
+        <v>926.98036599168006</v>
       </c>
       <c r="AH6" s="5">
-        <f t="shared" ref="AH6:AK6" si="7">AG6*1.02</f>
-        <v>922.70528010460794</v>
+        <f t="shared" ref="AH6:AK6" si="10">AG6*1.02</f>
+        <v>945.5199733115137</v>
       </c>
       <c r="AI6" s="5">
-        <f t="shared" si="7"/>
-        <v>941.15938570670016</v>
+        <f t="shared" si="10"/>
+        <v>964.43037277774397</v>
       </c>
       <c r="AJ6" s="5">
-        <f t="shared" si="7"/>
-        <v>959.98257342083423</v>
+        <f t="shared" si="10"/>
+        <v>983.71898023329891</v>
       </c>
       <c r="AK6" s="5">
-        <f t="shared" si="7"/>
-        <v>979.18222488925096</v>
+        <f t="shared" si="10"/>
+        <v>1003.3933598379649</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.3">
@@ -1368,7 +1373,7 @@
         <v>0.1</v>
       </c>
       <c r="O7" s="5">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1379,17 +1384,17 @@
       <c r="R7" s="5">
         <v>0</v>
       </c>
-      <c r="Y7" s="9">
-        <f>SUM(G7:J7)</f>
+      <c r="Y7" s="5">
+        <f t="shared" si="7"/>
         <v>23.1</v>
       </c>
-      <c r="Z7" s="9">
-        <f>SUM(K7:N7)</f>
+      <c r="Z7" s="5">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AA7" s="9">
-        <f>SUM(O7:R7)</f>
-        <v>0</v>
+      <c r="AA7" s="5">
+        <f t="shared" si="9"/>
+        <v>-3.7</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -1451,32 +1456,31 @@
         <v>56.4</v>
       </c>
       <c r="O8" s="5">
-        <f>K8*1.3</f>
-        <v>58.239999999999995</v>
+        <v>56</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" ref="P8:R8" si="8">L8*1.3</f>
+        <f t="shared" ref="P8:R8" si="11">L8*1.3</f>
         <v>60.710000000000008</v>
       </c>
       <c r="Q8" s="5">
+        <f t="shared" si="11"/>
+        <v>67.08</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="11"/>
+        <v>73.320000000000007</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="7"/>
+        <v>153.79999999999998</v>
+      </c>
+      <c r="Z8" s="5">
         <f t="shared" si="8"/>
-        <v>67.08</v>
-      </c>
-      <c r="R8" s="5">
-        <f t="shared" si="8"/>
-        <v>73.320000000000007</v>
-      </c>
-      <c r="Y8" s="9">
-        <f>SUM(G8:J8)</f>
-        <v>153.79999999999998</v>
-      </c>
-      <c r="Z8" s="9">
-        <f>SUM(K8:N8)</f>
         <v>199.5</v>
       </c>
-      <c r="AA8" s="9">
-        <f>SUM(O8:R8)</f>
-        <v>259.35000000000002</v>
+      <c r="AA8" s="5">
+        <f t="shared" si="9"/>
+        <v>257.11</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -1538,72 +1542,68 @@
         <v>12.4</v>
       </c>
       <c r="O9" s="5">
-        <f>O3*0.01</f>
-        <v>8.7010199999999998</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" ref="P9:R9" si="9">P3*0.01</f>
-        <v>9.5105000000000004</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Q9" s="5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="R9" s="5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="7"/>
+        <v>33.1</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="8"/>
+        <v>41.4</v>
+      </c>
+      <c r="AA9" s="5">
         <f t="shared" si="9"/>
-        <v>10.4558</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="9"/>
-        <v>10.2005</v>
-      </c>
-      <c r="Y9" s="9">
-        <f>SUM(G9:J9)</f>
-        <v>33.1</v>
-      </c>
-      <c r="Z9" s="9">
-        <f>SUM(K9:N9)</f>
-        <v>41.4</v>
-      </c>
-      <c r="AA9" s="9">
-        <f>SUM(O9:R9)</f>
-        <v>38.867820000000002</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AB9" s="5">
-        <f>AB3*0.01</f>
-        <v>43.531958400000001</v>
+        <f>AB3*0.02</f>
+        <v>85.80255600000001</v>
       </c>
       <c r="AC9" s="5">
-        <f t="shared" ref="AC9:AK9" si="10">AC3*0.01</f>
-        <v>47.014515072000002</v>
+        <f t="shared" ref="AC9:AK9" si="12">AC3*0.02</f>
+        <v>91.808734920000006</v>
       </c>
       <c r="AD9" s="5">
-        <f t="shared" si="10"/>
-        <v>49.835385976320005</v>
+        <f t="shared" si="12"/>
+        <v>96.399171666000001</v>
       </c>
       <c r="AE9" s="5">
-        <f t="shared" si="10"/>
-        <v>52.327155275136001</v>
+        <f t="shared" si="12"/>
+        <v>100.25513853264002</v>
       </c>
       <c r="AF9" s="5">
-        <f t="shared" si="10"/>
-        <v>54.420241486141443</v>
+        <f t="shared" si="12"/>
+        <v>103.26279268861921</v>
       </c>
       <c r="AG9" s="5">
-        <f t="shared" si="10"/>
-        <v>56.052848730725685</v>
+        <f t="shared" si="12"/>
+        <v>106.36067646927779</v>
       </c>
       <c r="AH9" s="5">
-        <f t="shared" si="10"/>
-        <v>57.734434192647448</v>
+        <f t="shared" si="12"/>
+        <v>109.55149676335611</v>
       </c>
       <c r="AI9" s="5">
-        <f t="shared" si="10"/>
-        <v>59.466467218426878</v>
+        <f t="shared" si="12"/>
+        <v>112.8380416662568</v>
       </c>
       <c r="AJ9" s="5">
-        <f t="shared" si="10"/>
-        <v>61.250461234979689</v>
+        <f t="shared" si="12"/>
+        <v>116.2231829162445</v>
       </c>
       <c r="AK9" s="5">
-        <f t="shared" si="10"/>
-        <v>63.087975072029074</v>
+        <f t="shared" si="12"/>
+        <v>119.70987840373184</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.3">
@@ -1635,72 +1635,71 @@
         <v>7.2</v>
       </c>
       <c r="O10" s="5">
-        <f>O3*0.008</f>
-        <v>6.9608160000000003</v>
+        <v>6.7</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" ref="P10:R10" si="11">P3*0.008</f>
+        <f t="shared" ref="P10:R10" si="13">P3*0.008</f>
         <v>7.6083999999999996</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.3646399999999996</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.1603999999999992</v>
       </c>
-      <c r="Y10" s="9">
-        <f>SUM(G10:J10)</f>
+      <c r="Y10" s="5">
+        <f t="shared" si="7"/>
         <v>15.1</v>
       </c>
-      <c r="Z10" s="9">
-        <f>SUM(K10:N10)</f>
+      <c r="Z10" s="5">
+        <f t="shared" si="8"/>
         <v>21.7</v>
       </c>
-      <c r="AA10" s="9">
-        <f>SUM(O10:R10)</f>
-        <v>31.094255999999998</v>
+      <c r="AA10" s="5">
+        <f t="shared" si="9"/>
+        <v>30.83344</v>
       </c>
       <c r="AB10" s="5">
         <f>AB3*0.008</f>
-        <v>34.825566720000005</v>
+        <v>34.321022400000004</v>
       </c>
       <c r="AC10" s="5">
-        <f t="shared" ref="AC10:AK10" si="12">AC3*0.008</f>
-        <v>37.611612057600006</v>
+        <f t="shared" ref="AC10:AK10" si="14">AC3*0.008</f>
+        <v>36.723493968000007</v>
       </c>
       <c r="AD10" s="5">
-        <f t="shared" si="12"/>
-        <v>39.868308781056001</v>
+        <f t="shared" si="14"/>
+        <v>38.5596686664</v>
       </c>
       <c r="AE10" s="5">
-        <f t="shared" si="12"/>
-        <v>41.861724220108805</v>
+        <f t="shared" si="14"/>
+        <v>40.102055413056007</v>
       </c>
       <c r="AF10" s="5">
-        <f t="shared" si="12"/>
-        <v>43.536193188913153</v>
+        <f t="shared" si="14"/>
+        <v>41.305117075447683</v>
       </c>
       <c r="AG10" s="5">
-        <f t="shared" si="12"/>
-        <v>44.842278984580545</v>
+        <f t="shared" si="14"/>
+        <v>42.544270587711118</v>
       </c>
       <c r="AH10" s="5">
-        <f t="shared" si="12"/>
-        <v>46.18754735411796</v>
+        <f t="shared" si="14"/>
+        <v>43.820598705342448</v>
       </c>
       <c r="AI10" s="5">
-        <f t="shared" si="12"/>
-        <v>47.573173774741505</v>
+        <f t="shared" si="14"/>
+        <v>45.135216666502721</v>
       </c>
       <c r="AJ10" s="5">
-        <f t="shared" si="12"/>
-        <v>49.000368987983748</v>
+        <f t="shared" si="14"/>
+        <v>46.489273166497796</v>
       </c>
       <c r="AK10" s="5">
-        <f t="shared" si="12"/>
-        <v>50.47038005762326</v>
+        <f t="shared" si="14"/>
+        <v>47.883951361492734</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.3">
@@ -1743,16 +1742,16 @@
       <c r="R11" s="5">
         <v>0</v>
       </c>
-      <c r="Y11" s="9">
-        <f>SUM(G11:J11)</f>
+      <c r="Y11" s="5">
+        <f t="shared" si="7"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="Z11" s="9">
-        <f>SUM(K11:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="9">
-        <f>SUM(O11:R11)</f>
+      <c r="Z11" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB11" s="5">
@@ -1791,52 +1790,52 @@
         <v>47</v>
       </c>
       <c r="G12" s="5">
-        <f>SUM(G6:G11)</f>
+        <f t="shared" ref="G12:N12" si="15">SUM(G6:G11)</f>
         <v>136.6</v>
       </c>
       <c r="H12" s="5">
-        <f>SUM(H6:H11)</f>
+        <f t="shared" si="15"/>
         <v>133</v>
       </c>
       <c r="I12" s="5">
-        <f>SUM(I6:I11)</f>
+        <f t="shared" si="15"/>
         <v>135.6</v>
       </c>
       <c r="J12" s="5">
-        <f>SUM(J6:J11)</f>
+        <f t="shared" si="15"/>
         <v>167.8</v>
       </c>
       <c r="K12" s="5">
-        <f>SUM(K6:K11)</f>
+        <f t="shared" si="15"/>
         <v>166.4</v>
       </c>
       <c r="L12" s="5">
-        <f>SUM(L6:L11)</f>
+        <f t="shared" si="15"/>
         <v>172.6</v>
       </c>
       <c r="M12" s="5">
-        <f>SUM(M6:M11)</f>
+        <f t="shared" si="15"/>
         <v>186.9</v>
       </c>
       <c r="N12" s="5">
-        <f>SUM(N6:N11)</f>
+        <f t="shared" si="15"/>
         <v>200.2</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="O12:R12" si="13">SUM(O6:O11)</f>
-        <v>213.13183599999996</v>
+        <f t="shared" ref="O12:R12" si="16">SUM(O6:O11)</f>
+        <v>231.6</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="13"/>
-        <v>220.9589</v>
+        <f t="shared" si="16"/>
+        <v>230.04839999999999</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="13"/>
-        <v>239.56044000000003</v>
+        <f t="shared" si="16"/>
+        <v>247.70464000000001</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="13"/>
-        <v>253.01089999999999</v>
+        <f t="shared" si="16"/>
+        <v>261.41039999999998</v>
       </c>
       <c r="Y12" s="5">
         <f>SUM(Y6:Y11)</f>
@@ -1848,47 +1847,47 @@
       </c>
       <c r="AA12" s="5">
         <f>SUM(AA6:AA11)</f>
-        <v>926.66207599999996</v>
+        <v>970.76343999999983</v>
       </c>
       <c r="AB12" s="5">
         <f>SUM(AB6:AB11)</f>
-        <v>795.17752511999981</v>
+        <v>854.66757839999991</v>
       </c>
       <c r="AC12" s="5">
-        <f t="shared" ref="AC12:AK12" si="14">SUM(AC6:AC11)</f>
-        <v>873.12812712959987</v>
+        <f t="shared" ref="AC12:AK12" si="17">SUM(AC6:AC11)</f>
+        <v>936.53062888799991</v>
       </c>
       <c r="AD12" s="5">
-        <f t="shared" si="14"/>
-        <v>917.63079475737595</v>
+        <f t="shared" si="17"/>
+        <v>983.3571603324001</v>
       </c>
       <c r="AE12" s="5">
-        <f t="shared" si="14"/>
-        <v>955.23306349524466</v>
+        <f t="shared" si="17"/>
+        <v>1022.6914467456961</v>
       </c>
       <c r="AF12" s="5">
-        <f t="shared" si="14"/>
-        <v>984.83194419505446</v>
+        <f t="shared" si="17"/>
+        <v>1053.3721901480669</v>
       </c>
       <c r="AG12" s="5">
-        <f t="shared" si="14"/>
-        <v>1005.5081474257062</v>
+        <f t="shared" si="17"/>
+        <v>1075.8853130486689</v>
       </c>
       <c r="AH12" s="5">
-        <f t="shared" si="14"/>
-        <v>1026.6272616513734</v>
+        <f t="shared" si="17"/>
+        <v>1098.8920687802124</v>
       </c>
       <c r="AI12" s="5">
-        <f t="shared" si="14"/>
-        <v>1048.1990266998685</v>
+        <f t="shared" si="17"/>
+        <v>1122.4036311105035</v>
       </c>
       <c r="AJ12" s="5">
-        <f t="shared" si="14"/>
-        <v>1070.2334036437976</v>
+        <f t="shared" si="17"/>
+        <v>1146.4314363160411</v>
       </c>
       <c r="AK12" s="5">
-        <f t="shared" si="14"/>
-        <v>1092.7405800189033</v>
+        <f t="shared" si="17"/>
+        <v>1170.9871896031896</v>
       </c>
     </row>
     <row r="13" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1896,52 +1895,52 @@
         <v>20</v>
       </c>
       <c r="G13" s="8">
-        <f>G5-G12</f>
+        <f t="shared" ref="G13:N13" si="18">G5-G12</f>
         <v>8.7999999999999829</v>
       </c>
       <c r="H13" s="8">
-        <f>H5-H12</f>
+        <f t="shared" si="18"/>
         <v>33.899999999999977</v>
       </c>
       <c r="I13" s="8">
-        <f>I5-I12</f>
+        <f t="shared" si="18"/>
         <v>44.69999999999996</v>
       </c>
       <c r="J13" s="8">
-        <f>J5-J12</f>
+        <f t="shared" si="18"/>
         <v>27.399999999999977</v>
       </c>
       <c r="K13" s="8">
-        <f>K5-K12</f>
+        <f t="shared" si="18"/>
         <v>21.399999999999949</v>
       </c>
       <c r="L13" s="8">
-        <f>L5-L12</f>
+        <f t="shared" si="18"/>
         <v>59.19999999999996</v>
       </c>
       <c r="M13" s="8">
-        <f>M5-M12</f>
+        <f t="shared" si="18"/>
         <v>80.400000000000063</v>
       </c>
       <c r="N13" s="8">
-        <f>N5-N12</f>
+        <f t="shared" si="18"/>
         <v>86.000000000000057</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" ref="O13:R13" si="15">O5-O12</f>
-        <v>74.001824000000056</v>
+        <f t="shared" ref="O13:R13" si="19">O5-O12</f>
+        <v>25.400000000000006</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" si="15"/>
-        <v>92.887599999999992</v>
+        <f t="shared" si="19"/>
+        <v>74.287600000000026</v>
       </c>
       <c r="Q13" s="8">
-        <f t="shared" si="15"/>
-        <v>115.93675999999999</v>
+        <f t="shared" si="19"/>
+        <v>97.336759999999998</v>
       </c>
       <c r="R13" s="8">
-        <f t="shared" si="15"/>
-        <v>104.00659999999999</v>
+        <f t="shared" si="19"/>
+        <v>85.406600000000026</v>
       </c>
       <c r="Y13" s="8">
         <f>Y5-Y12</f>
@@ -1953,47 +1952,47 @@
       </c>
       <c r="AA13" s="8">
         <f>AA5-AA12</f>
-        <v>386.83278400000029</v>
+        <v>282.43096000000003</v>
       </c>
       <c r="AB13" s="8">
         <f>AB5-AB12</f>
-        <v>771.97297728000024</v>
+        <v>603.97587360000034</v>
       </c>
       <c r="AC13" s="8">
-        <f t="shared" ref="AC13:AK13" si="16">AC5-AC12</f>
-        <v>913.42344560640038</v>
+        <f t="shared" ref="AC13:AK13" si="20">AC5-AC12</f>
+        <v>716.0265996720002</v>
       </c>
       <c r="AD13" s="8">
-        <f t="shared" si="16"/>
-        <v>1025.9492583191043</v>
+        <f t="shared" si="20"/>
+        <v>800.02751548859987</v>
       </c>
       <c r="AE13" s="8">
-        <f t="shared" si="16"/>
-        <v>1137.8531475101954</v>
+        <f t="shared" si="20"/>
+        <v>882.15618537446403</v>
       </c>
       <c r="AF13" s="8">
-        <f t="shared" si="16"/>
-        <v>1191.9777152506035</v>
+        <f t="shared" si="20"/>
+        <v>960.2522672800078</v>
       </c>
       <c r="AG13" s="8">
-        <f t="shared" si="16"/>
-        <v>1236.6058018033209</v>
+        <f t="shared" si="20"/>
+        <v>1051.328216336887</v>
       </c>
       <c r="AH13" s="8">
-        <f t="shared" si="16"/>
-        <v>1282.7501060545246</v>
+        <f t="shared" si="20"/>
+        <v>1092.1378664869098</v>
       </c>
       <c r="AI13" s="8">
-        <f t="shared" si="16"/>
-        <v>1330.459662037207</v>
+        <f t="shared" si="20"/>
+        <v>1134.3572022146325</v>
       </c>
       <c r="AJ13" s="8">
-        <f t="shared" si="16"/>
-        <v>1379.7850457553898</v>
+        <f t="shared" si="20"/>
+        <v>1178.0322220088487</v>
       </c>
       <c r="AK13" s="8">
-        <f t="shared" si="16"/>
-        <v>1430.7784228622597</v>
+        <f t="shared" si="20"/>
+        <v>1223.2103784714473</v>
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.3">
@@ -2025,72 +2024,71 @@
         <v>-13.6</v>
       </c>
       <c r="O14" s="5">
-        <f>K14*1.2</f>
-        <v>-6.48</v>
+        <v>-12.4</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" ref="P14:R14" si="17">L14*1.2</f>
+        <f t="shared" ref="P14:R14" si="21">L14*1.2</f>
         <v>-6</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-11.639999999999999</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-16.32</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="5">
         <f>SUM(G14:J14)</f>
         <v>-31.9</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="5">
         <f>SUM(K14:N14)</f>
         <v>-33.700000000000003</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="5">
         <f>SUM(O14:R14)</f>
-        <v>-40.44</v>
+        <v>-46.36</v>
       </c>
       <c r="AB14" s="5">
         <f>AA14*1.05</f>
-        <v>-42.461999999999996</v>
+        <v>-48.678000000000004</v>
       </c>
       <c r="AC14" s="5">
-        <f t="shared" ref="AC14:AK14" si="18">AB14*1.05</f>
-        <v>-44.585099999999997</v>
+        <f t="shared" ref="AC14:AK14" si="22">AB14*1.05</f>
+        <v>-51.111900000000006</v>
       </c>
       <c r="AD14" s="5">
-        <f t="shared" si="18"/>
-        <v>-46.814354999999999</v>
+        <f t="shared" si="22"/>
+        <v>-53.667495000000009</v>
       </c>
       <c r="AE14" s="5">
-        <f t="shared" si="18"/>
-        <v>-49.155072750000002</v>
+        <f t="shared" si="22"/>
+        <v>-56.350869750000015</v>
       </c>
       <c r="AF14" s="5">
-        <f t="shared" si="18"/>
-        <v>-51.612826387500007</v>
+        <f t="shared" si="22"/>
+        <v>-59.168413237500019</v>
       </c>
       <c r="AG14" s="5">
-        <f t="shared" si="18"/>
-        <v>-54.193467706875012</v>
+        <f t="shared" si="22"/>
+        <v>-62.126833899375022</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="18"/>
-        <v>-56.903141092218767</v>
+        <f t="shared" si="22"/>
+        <v>-65.233175594343777</v>
       </c>
       <c r="AI14" s="5">
-        <f t="shared" si="18"/>
-        <v>-59.748298146829711</v>
+        <f t="shared" si="22"/>
+        <v>-68.494834374060972</v>
       </c>
       <c r="AJ14" s="5">
-        <f t="shared" si="18"/>
-        <v>-62.7357130541712</v>
+        <f t="shared" si="22"/>
+        <v>-71.919576092764018</v>
       </c>
       <c r="AK14" s="5">
-        <f t="shared" si="18"/>
-        <v>-65.872498706879767</v>
+        <f t="shared" si="22"/>
+        <v>-75.515554897402225</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.3">
@@ -2122,7 +2120,7 @@
         <v>-1.5</v>
       </c>
       <c r="O15" s="5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P15" s="5">
         <v>0</v>
@@ -2133,17 +2131,17 @@
       <c r="R15" s="5">
         <v>0</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="5">
         <f>SUM(G15:J15)</f>
         <v>3.9000000000000004</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z15" s="5">
         <f>SUM(K15:N15)</f>
         <v>-1.7999999999999998</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AA15" s="5">
         <f>SUM(O15:R15)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2205,7 +2203,7 @@
         <v>-45.1</v>
       </c>
       <c r="O16" s="5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="P16" s="5">
         <v>0</v>
@@ -2216,17 +2214,17 @@
       <c r="R16" s="5">
         <v>0</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="5">
         <f>SUM(G16:J16)</f>
         <v>-12.2</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="5">
         <f>SUM(K16:N16)</f>
         <v>-66.7</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="5">
         <f>SUM(O16:R16)</f>
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -2288,7 +2286,7 @@
         <v>-5.2</v>
       </c>
       <c r="O17" s="5">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P17" s="5">
         <v>0</v>
@@ -2299,17 +2297,17 @@
       <c r="R17" s="5">
         <v>0</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="5">
         <f>SUM(G17:J17)</f>
         <v>3.4</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="5">
         <f>SUM(K17:N17)</f>
         <v>289</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="5">
         <f>SUM(O17:R17)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -2371,68 +2369,68 @@
         <v>27.3</v>
       </c>
       <c r="O18" s="5">
-        <v>15</v>
+        <v>28.5</v>
       </c>
       <c r="P18" s="5">
-        <v>15</v>
+        <v>28.5</v>
       </c>
       <c r="Q18" s="5">
-        <v>15</v>
+        <v>28.5</v>
       </c>
       <c r="R18" s="5">
-        <v>15</v>
-      </c>
-      <c r="Y18" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="Y18" s="5">
         <f>SUM(G18:J18)</f>
         <v>32.1</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="5">
         <f>SUM(K18:N18)</f>
         <v>61.8</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="5">
         <f>SUM(O18:R18)</f>
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="AB18" s="5">
         <f>AA18*1.03</f>
-        <v>61.800000000000004</v>
+        <v>117.42</v>
       </c>
       <c r="AC18" s="5">
-        <f t="shared" ref="AC18:AK18" si="19">AB18*1.03</f>
-        <v>63.654000000000003</v>
+        <f t="shared" ref="AC18:AK18" si="23">AB18*1.03</f>
+        <v>120.9426</v>
       </c>
       <c r="AD18" s="5">
-        <f t="shared" si="19"/>
-        <v>65.56362</v>
+        <f t="shared" si="23"/>
+        <v>124.57087800000001</v>
       </c>
       <c r="AE18" s="5">
-        <f t="shared" si="19"/>
-        <v>67.530528599999997</v>
+        <f t="shared" si="23"/>
+        <v>128.30800434000002</v>
       </c>
       <c r="AF18" s="5">
-        <f t="shared" si="19"/>
-        <v>69.556444458000001</v>
+        <f t="shared" si="23"/>
+        <v>132.15724447020003</v>
       </c>
       <c r="AG18" s="5">
-        <f t="shared" si="19"/>
-        <v>71.643137791740003</v>
+        <f t="shared" si="23"/>
+        <v>136.12196180430604</v>
       </c>
       <c r="AH18" s="5">
-        <f t="shared" si="19"/>
-        <v>73.79243192549221</v>
+        <f t="shared" si="23"/>
+        <v>140.20562065843524</v>
       </c>
       <c r="AI18" s="5">
-        <f t="shared" si="19"/>
-        <v>76.006204883256984</v>
+        <f t="shared" si="23"/>
+        <v>144.41178927818831</v>
       </c>
       <c r="AJ18" s="5">
-        <f t="shared" si="19"/>
-        <v>78.286391029754697</v>
+        <f t="shared" si="23"/>
+        <v>148.74414295653395</v>
       </c>
       <c r="AK18" s="5">
-        <f t="shared" si="19"/>
-        <v>80.634982760647333</v>
+        <f t="shared" si="23"/>
+        <v>153.20646724522996</v>
       </c>
     </row>
     <row r="19" spans="2:146" x14ac:dyDescent="0.3">
@@ -2440,52 +2438,52 @@
         <v>30</v>
       </c>
       <c r="G19" s="5">
-        <f>SUM(G14:G18)</f>
+        <f t="shared" ref="G19:O19" si="24">SUM(G14:G18)</f>
         <v>-8.0000000000000018</v>
       </c>
       <c r="H19" s="5">
-        <f>SUM(H14:H18)</f>
+        <f t="shared" si="24"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="I19" s="5">
-        <f>SUM(I14:I18)</f>
+        <f t="shared" si="24"/>
         <v>-2.6999999999999993</v>
       </c>
       <c r="J19" s="5">
-        <f>SUM(J14:J18)</f>
+        <f t="shared" si="24"/>
         <v>5.6</v>
       </c>
       <c r="K19" s="5">
-        <f>SUM(K14:K18)</f>
+        <f t="shared" si="24"/>
         <v>-8.5000000000000018</v>
       </c>
       <c r="L19" s="5">
-        <f>SUM(L14:L18)</f>
+        <f t="shared" si="24"/>
         <v>6.5</v>
       </c>
       <c r="M19" s="5">
-        <f>SUM(M14:M18)</f>
+        <f t="shared" si="24"/>
         <v>288.7</v>
       </c>
       <c r="N19" s="5">
-        <f>SUM(N14:N18)</f>
+        <f t="shared" si="24"/>
         <v>-38.100000000000009</v>
       </c>
       <c r="O19" s="5">
-        <f>SUM(O14:O18)</f>
-        <v>8.52</v>
+        <f t="shared" si="24"/>
+        <v>13.999999999999998</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" ref="P19:R19" si="20">SUM(P14:P18)</f>
-        <v>9</v>
+        <f t="shared" ref="P19:R19" si="25">SUM(P14:P18)</f>
+        <v>22.5</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="20"/>
-        <v>3.3600000000000012</v>
+        <f t="shared" si="25"/>
+        <v>16.86</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="20"/>
-        <v>-1.3200000000000003</v>
+        <f t="shared" si="25"/>
+        <v>12.18</v>
       </c>
       <c r="Y19" s="5">
         <f>SUM(Y14:Y18)</f>
@@ -2497,47 +2495,47 @@
       </c>
       <c r="AA19" s="5">
         <f>SUM(AA14:AA18)</f>
-        <v>19.560000000000002</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="AB19" s="5">
         <f>SUM(AB14:AB18)</f>
-        <v>19.338000000000008</v>
+        <v>68.74199999999999</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" ref="AC19:AK19" si="21">SUM(AC14:AC18)</f>
-        <v>19.068900000000006</v>
+        <f t="shared" ref="AC19:AK19" si="26">SUM(AC14:AC18)</f>
+        <v>69.830699999999993</v>
       </c>
       <c r="AD19" s="5">
-        <f t="shared" si="21"/>
-        <v>18.749265000000001</v>
+        <f t="shared" si="26"/>
+        <v>70.903382999999991</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="21"/>
-        <v>18.375455849999994</v>
+        <f t="shared" si="26"/>
+        <v>71.95713459000001</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="21"/>
-        <v>17.943618070499994</v>
+        <f t="shared" si="26"/>
+        <v>72.988831232700008</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="21"/>
-        <v>17.449670084864991</v>
+        <f t="shared" si="26"/>
+        <v>73.995127904931024</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="21"/>
-        <v>16.889290833273442</v>
+        <f t="shared" si="26"/>
+        <v>74.97244506409146</v>
       </c>
       <c r="AI19" s="5">
-        <f t="shared" si="21"/>
-        <v>16.257906736427273</v>
+        <f t="shared" si="26"/>
+        <v>75.916954904127337</v>
       </c>
       <c r="AJ19" s="5">
-        <f t="shared" si="21"/>
-        <v>15.550677975583497</v>
+        <f t="shared" si="26"/>
+        <v>76.824566863769931</v>
       </c>
       <c r="AK19" s="5">
-        <f t="shared" si="21"/>
-        <v>14.762484053767565</v>
+        <f t="shared" si="26"/>
+        <v>77.690912347827734</v>
       </c>
     </row>
     <row r="20" spans="2:146" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2545,52 +2543,52 @@
         <v>25</v>
       </c>
       <c r="G20" s="8">
-        <f>G13-G19</f>
+        <f t="shared" ref="G20:O20" si="27">G13-G19</f>
         <v>16.799999999999983</v>
       </c>
       <c r="H20" s="8">
-        <f>H13-H19</f>
+        <f t="shared" si="27"/>
         <v>33.499999999999979</v>
       </c>
       <c r="I20" s="8">
-        <f>I13-I19</f>
+        <f t="shared" si="27"/>
         <v>47.399999999999963</v>
       </c>
       <c r="J20" s="8">
-        <f>J13-J19</f>
+        <f t="shared" si="27"/>
         <v>21.799999999999976</v>
       </c>
       <c r="K20" s="8">
-        <f>K13-K19</f>
+        <f t="shared" si="27"/>
         <v>29.899999999999949</v>
       </c>
       <c r="L20" s="8">
-        <f>L13-L19</f>
+        <f t="shared" si="27"/>
         <v>52.69999999999996</v>
       </c>
       <c r="M20" s="8">
-        <f>M13-M19</f>
+        <f t="shared" si="27"/>
         <v>-208.29999999999993</v>
       </c>
       <c r="N20" s="8">
-        <f>N13-N19</f>
+        <f t="shared" si="27"/>
         <v>124.10000000000007</v>
       </c>
       <c r="O20" s="8">
-        <f>O13-O19</f>
-        <v>65.48182400000006</v>
+        <f t="shared" si="27"/>
+        <v>11.400000000000007</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" ref="P20:R20" si="22">P13-P19</f>
-        <v>83.887599999999992</v>
+        <f t="shared" ref="P20:R20" si="28">P13-P19</f>
+        <v>51.787600000000026</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" si="22"/>
-        <v>112.57675999999999</v>
+        <f t="shared" si="28"/>
+        <v>80.476759999999999</v>
       </c>
       <c r="R20" s="8">
-        <f t="shared" si="22"/>
-        <v>105.32659999999998</v>
+        <f t="shared" si="28"/>
+        <v>73.226600000000019</v>
       </c>
       <c r="Y20" s="8">
         <f>Y13-Y19</f>
@@ -2602,47 +2600,47 @@
       </c>
       <c r="AA20" s="8">
         <f>AA13-AA19</f>
-        <v>367.27278400000029</v>
+        <v>216.89096000000001</v>
       </c>
       <c r="AB20" s="8">
         <f>AB13-AB19</f>
-        <v>752.63497728000027</v>
+        <v>535.23387360000038</v>
       </c>
       <c r="AC20" s="8">
-        <f t="shared" ref="AC20:AK20" si="23">AC13-AC19</f>
-        <v>894.35454560640039</v>
+        <f t="shared" ref="AC20:AK20" si="29">AC13-AC19</f>
+        <v>646.19589967200022</v>
       </c>
       <c r="AD20" s="8">
-        <f t="shared" si="23"/>
-        <v>1007.1999933191042</v>
+        <f t="shared" si="29"/>
+        <v>729.12413248859991</v>
       </c>
       <c r="AE20" s="8">
-        <f t="shared" si="23"/>
-        <v>1119.4776916601954</v>
+        <f t="shared" si="29"/>
+        <v>810.19905078446402</v>
       </c>
       <c r="AF20" s="8">
-        <f t="shared" si="23"/>
-        <v>1174.0340971801036</v>
+        <f t="shared" si="29"/>
+        <v>887.26343604730778</v>
       </c>
       <c r="AG20" s="8">
-        <f t="shared" si="23"/>
-        <v>1219.156131718456</v>
+        <f t="shared" si="29"/>
+        <v>977.33308843195596</v>
       </c>
       <c r="AH20" s="8">
-        <f t="shared" si="23"/>
-        <v>1265.8608152212512</v>
+        <f t="shared" si="29"/>
+        <v>1017.1654214228183</v>
       </c>
       <c r="AI20" s="8">
-        <f t="shared" si="23"/>
-        <v>1314.2017553007797</v>
+        <f t="shared" si="29"/>
+        <v>1058.4402473105051</v>
       </c>
       <c r="AJ20" s="8">
-        <f t="shared" si="23"/>
-        <v>1364.2343677798062</v>
+        <f t="shared" si="29"/>
+        <v>1101.2076551450789</v>
       </c>
       <c r="AK20" s="8">
-        <f t="shared" si="23"/>
-        <v>1416.0159388084921</v>
+        <f t="shared" si="29"/>
+        <v>1145.5194661236196</v>
       </c>
     </row>
     <row r="21" spans="2:146" x14ac:dyDescent="0.3">
@@ -2674,72 +2672,71 @@
         <v>15.2</v>
       </c>
       <c r="O21" s="5">
-        <f>O20*0.15</f>
-        <v>9.8222736000000079</v>
+        <v>-8.1</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" ref="P21:R21" si="24">P20*0.15</f>
-        <v>12.583139999999998</v>
+        <f t="shared" ref="P21:R21" si="30">P20*0.15</f>
+        <v>7.7681400000000034</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="24"/>
-        <v>16.886513999999998</v>
+        <f t="shared" si="30"/>
+        <v>12.071513999999999</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="24"/>
-        <v>15.798989999999996</v>
-      </c>
-      <c r="Y21" s="9">
+        <f t="shared" si="30"/>
+        <v>10.983990000000002</v>
+      </c>
+      <c r="Y21" s="5">
         <f>SUM(G21:J21)</f>
         <v>-3.4</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="5">
         <f>SUM(K21:N21)</f>
         <v>-265.7</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="5">
         <f>SUM(O21:R21)</f>
-        <v>55.090917600000004</v>
+        <v>22.723644000000004</v>
       </c>
       <c r="AB21" s="5">
         <f>AB20*0.15</f>
-        <v>112.89524659200003</v>
+        <v>80.285081040000051</v>
       </c>
       <c r="AC21" s="5">
-        <f t="shared" ref="AC21:AK21" si="25">AC20*0.15</f>
-        <v>134.15318184096006</v>
+        <f t="shared" ref="AC21:AK21" si="31">AC20*0.15</f>
+        <v>96.929384950800028</v>
       </c>
       <c r="AD21" s="5">
-        <f t="shared" si="25"/>
-        <v>151.07999899786563</v>
+        <f t="shared" si="31"/>
+        <v>109.36861987328999</v>
       </c>
       <c r="AE21" s="5">
-        <f t="shared" si="25"/>
-        <v>167.9216537490293</v>
+        <f t="shared" si="31"/>
+        <v>121.52985761766959</v>
       </c>
       <c r="AF21" s="5">
-        <f t="shared" si="25"/>
-        <v>176.10511457701554</v>
+        <f t="shared" si="31"/>
+        <v>133.08951540709617</v>
       </c>
       <c r="AG21" s="5">
-        <f t="shared" si="25"/>
-        <v>182.8734197577684</v>
+        <f t="shared" si="31"/>
+        <v>146.59996326479339</v>
       </c>
       <c r="AH21" s="5">
-        <f t="shared" si="25"/>
-        <v>189.87912228318768</v>
+        <f t="shared" si="31"/>
+        <v>152.57481321342274</v>
       </c>
       <c r="AI21" s="5">
-        <f t="shared" si="25"/>
-        <v>197.13026329511695</v>
+        <f t="shared" si="31"/>
+        <v>158.76603709657576</v>
       </c>
       <c r="AJ21" s="5">
-        <f t="shared" si="25"/>
-        <v>204.63515516697092</v>
+        <f t="shared" si="31"/>
+        <v>165.18114827176183</v>
       </c>
       <c r="AK21" s="5">
-        <f t="shared" si="25"/>
-        <v>212.40239082127383</v>
+        <f t="shared" si="31"/>
+        <v>171.82791991854293</v>
       </c>
     </row>
     <row r="22" spans="2:146" x14ac:dyDescent="0.3">
@@ -2771,72 +2768,71 @@
         <v>23.3</v>
       </c>
       <c r="O22" s="5">
-        <f>O20*0.2</f>
-        <v>13.096364800000012</v>
+        <v>2.8</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" ref="P22:R22" si="26">P20*0.2</f>
-        <v>16.777519999999999</v>
+        <f t="shared" ref="P22:R22" si="32">P20*0.2</f>
+        <v>10.357520000000006</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="26"/>
-        <v>22.515352</v>
+        <f t="shared" si="32"/>
+        <v>16.095352000000002</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="26"/>
-        <v>21.06532</v>
-      </c>
-      <c r="Y22" s="9">
+        <f t="shared" si="32"/>
+        <v>14.645320000000005</v>
+      </c>
+      <c r="Y22" s="5">
         <f>SUM(G22:J22)</f>
         <v>36.699999999999996</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="5">
         <f>SUM(K22:N22)</f>
         <v>64.900000000000006</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="5">
         <f>SUM(O22:R22)</f>
-        <v>73.454556800000006</v>
+        <v>43.898192000000009</v>
       </c>
       <c r="AB22" s="5">
         <f>AB20*0.18</f>
-        <v>135.47429591040003</v>
+        <v>96.342097248000059</v>
       </c>
       <c r="AC22" s="5">
-        <f t="shared" ref="AC22:AK22" si="27">AC20*0.18</f>
-        <v>160.98381820915208</v>
+        <f t="shared" ref="AC22:AK22" si="33">AC20*0.18</f>
+        <v>116.31526194096004</v>
       </c>
       <c r="AD22" s="5">
-        <f t="shared" si="27"/>
-        <v>181.29599879743876</v>
+        <f t="shared" si="33"/>
+        <v>131.24234384794798</v>
       </c>
       <c r="AE22" s="5">
-        <f t="shared" si="27"/>
-        <v>201.50598449883518</v>
+        <f t="shared" si="33"/>
+        <v>145.8358291412035</v>
       </c>
       <c r="AF22" s="5">
-        <f t="shared" si="27"/>
-        <v>211.32613749241864</v>
+        <f t="shared" si="33"/>
+        <v>159.7074184885154</v>
       </c>
       <c r="AG22" s="5">
-        <f t="shared" si="27"/>
-        <v>219.44810370932206</v>
+        <f t="shared" si="33"/>
+        <v>175.91995591775208</v>
       </c>
       <c r="AH22" s="5">
-        <f t="shared" si="27"/>
-        <v>227.85494673982521</v>
+        <f t="shared" si="33"/>
+        <v>183.08977585610728</v>
       </c>
       <c r="AI22" s="5">
-        <f t="shared" si="27"/>
-        <v>236.55631595414033</v>
+        <f t="shared" si="33"/>
+        <v>190.5192445158909</v>
       </c>
       <c r="AJ22" s="5">
-        <f t="shared" si="27"/>
-        <v>245.56218620036512</v>
+        <f t="shared" si="33"/>
+        <v>198.21737792611418</v>
       </c>
       <c r="AK22" s="5">
-        <f t="shared" si="27"/>
-        <v>254.88286898552857</v>
+        <f t="shared" si="33"/>
+        <v>206.19350390225154</v>
       </c>
     </row>
     <row r="23" spans="2:146" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2844,52 +2840,52 @@
         <v>28</v>
       </c>
       <c r="G23" s="8">
-        <f>G20-G21-G22</f>
+        <f t="shared" ref="G23:O23" si="34">G20-G21-G22</f>
         <v>14.799999999999985</v>
       </c>
       <c r="H23" s="8">
-        <f>H20-H21-H22</f>
+        <f t="shared" si="34"/>
         <v>25.099999999999977</v>
       </c>
       <c r="I23" s="8">
-        <f>I20-I21-I22</f>
+        <f t="shared" si="34"/>
         <v>32.599999999999966</v>
       </c>
       <c r="J23" s="8">
-        <f>J20-J21-J22</f>
+        <f t="shared" si="34"/>
         <v>13.699999999999974</v>
       </c>
       <c r="K23" s="8">
-        <f>K20-K21-K22</f>
+        <f t="shared" si="34"/>
         <v>20.599999999999952</v>
       </c>
       <c r="L23" s="8">
-        <f>L20-L21-L22</f>
+        <f t="shared" si="34"/>
         <v>39.19999999999996</v>
       </c>
       <c r="M23" s="8">
-        <f>M20-M21-M22</f>
+        <f t="shared" si="34"/>
         <v>53.800000000000075</v>
       </c>
       <c r="N23" s="8">
-        <f>N20-N21-N22</f>
+        <f t="shared" si="34"/>
         <v>85.600000000000065</v>
       </c>
       <c r="O23" s="8">
-        <f>O20-O21-O22</f>
-        <v>42.56318560000004</v>
+        <f t="shared" si="34"/>
+        <v>16.700000000000006</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" ref="P23:R23" si="28">P20-P21-P22</f>
-        <v>54.526939999999996</v>
+        <f t="shared" ref="P23:R23" si="35">P20-P21-P22</f>
+        <v>33.661940000000016</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="28"/>
-        <v>73.174893999999995</v>
+        <f t="shared" si="35"/>
+        <v>52.309894</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="28"/>
-        <v>68.462289999999982</v>
+        <f t="shared" si="35"/>
+        <v>47.597290000000008</v>
       </c>
       <c r="Y23" s="8">
         <f>Y20-Y21-Y22</f>
@@ -2901,483 +2897,483 @@
       </c>
       <c r="AA23" s="8">
         <f>AA20-AA21-AA22</f>
-        <v>238.72730960000027</v>
+        <v>150.26912399999998</v>
       </c>
       <c r="AB23" s="8">
         <f>AB20-AB21-AB22</f>
-        <v>504.26543477760021</v>
+        <v>358.60669531200028</v>
       </c>
       <c r="AC23" s="8">
-        <f t="shared" ref="AC23:AK23" si="29">AC20-AC21-AC22</f>
-        <v>599.2175455562882</v>
+        <f t="shared" ref="AC23:AK23" si="36">AC20-AC21-AC22</f>
+        <v>432.95125278024017</v>
       </c>
       <c r="AD23" s="8">
-        <f t="shared" si="29"/>
-        <v>674.82399552379991</v>
+        <f t="shared" si="36"/>
+        <v>488.513168767362</v>
       </c>
       <c r="AE23" s="8">
-        <f t="shared" si="29"/>
-        <v>750.05005341233095</v>
+        <f t="shared" si="36"/>
+        <v>542.83336402559098</v>
       </c>
       <c r="AF23" s="8">
-        <f t="shared" si="29"/>
-        <v>786.60284511066936</v>
+        <f t="shared" si="36"/>
+        <v>594.4665021516962</v>
       </c>
       <c r="AG23" s="8">
-        <f t="shared" si="29"/>
-        <v>816.83460825136547</v>
+        <f t="shared" si="36"/>
+        <v>654.81316924941052</v>
       </c>
       <c r="AH23" s="8">
-        <f t="shared" si="29"/>
-        <v>848.12674619823838</v>
+        <f t="shared" si="36"/>
+        <v>681.50083235328827</v>
       </c>
       <c r="AI23" s="8">
-        <f t="shared" si="29"/>
-        <v>880.51517605152242</v>
+        <f t="shared" si="36"/>
+        <v>709.1549656980385</v>
       </c>
       <c r="AJ23" s="8">
-        <f t="shared" si="29"/>
-        <v>914.03702641247025</v>
+        <f t="shared" si="36"/>
+        <v>737.80912894720291</v>
       </c>
       <c r="AK23" s="8">
-        <f t="shared" si="29"/>
-        <v>948.73067900168962</v>
+        <f t="shared" si="36"/>
+        <v>767.49804230282518</v>
       </c>
       <c r="AL23" s="1">
         <f>AK23*(1+$AO$29)</f>
-        <v>939.24337221167275</v>
+        <v>759.82306187979691</v>
       </c>
       <c r="AM23" s="1">
-        <f t="shared" ref="AM23:CX23" si="30">AL23*(1+$AO$29)</f>
-        <v>929.85093848955603</v>
+        <f t="shared" ref="AM23:CX23" si="37">AL23*(1+$AO$29)</f>
+        <v>752.22483126099894</v>
       </c>
       <c r="AN23" s="1">
-        <f t="shared" si="30"/>
-        <v>920.5524291046604</v>
+        <f t="shared" si="37"/>
+        <v>744.70258294838891</v>
       </c>
       <c r="AO23" s="1">
-        <f t="shared" si="30"/>
-        <v>911.34690481361383</v>
+        <f t="shared" si="37"/>
+        <v>737.25555711890502</v>
       </c>
       <c r="AP23" s="1">
-        <f t="shared" si="30"/>
-        <v>902.23343576547768</v>
+        <f t="shared" si="37"/>
+        <v>729.88300154771593</v>
       </c>
       <c r="AQ23" s="1">
-        <f t="shared" si="30"/>
-        <v>893.21110140782287</v>
+        <f t="shared" si="37"/>
+        <v>722.58417153223877</v>
       </c>
       <c r="AR23" s="1">
-        <f t="shared" si="30"/>
-        <v>884.27899039374461</v>
+        <f t="shared" si="37"/>
+        <v>715.35832981691635</v>
       </c>
       <c r="AS23" s="1">
-        <f t="shared" si="30"/>
-        <v>875.43620048980711</v>
+        <f t="shared" si="37"/>
+        <v>708.20474651874713</v>
       </c>
       <c r="AT23" s="1">
-        <f t="shared" si="30"/>
-        <v>866.68183848490901</v>
+        <f t="shared" si="37"/>
+        <v>701.1226990535597</v>
       </c>
       <c r="AU23" s="1">
-        <f t="shared" si="30"/>
-        <v>858.01502010005993</v>
+        <f t="shared" si="37"/>
+        <v>694.11147206302405</v>
       </c>
       <c r="AV23" s="1">
-        <f t="shared" si="30"/>
-        <v>849.43486989905932</v>
+        <f t="shared" si="37"/>
+        <v>687.1703573423938</v>
       </c>
       <c r="AW23" s="1">
-        <f t="shared" si="30"/>
-        <v>840.9405212000687</v>
+        <f t="shared" si="37"/>
+        <v>680.29865376896987</v>
       </c>
       <c r="AX23" s="1">
-        <f t="shared" si="30"/>
-        <v>832.531115988068</v>
+        <f t="shared" si="37"/>
+        <v>673.49566723128021</v>
       </c>
       <c r="AY23" s="1">
-        <f t="shared" si="30"/>
-        <v>824.2058048281873</v>
+        <f t="shared" si="37"/>
+        <v>666.76071055896739</v>
       </c>
       <c r="AZ23" s="1">
-        <f t="shared" si="30"/>
-        <v>815.96374677990536</v>
+        <f t="shared" si="37"/>
+        <v>660.09310345337769</v>
       </c>
       <c r="BA23" s="1">
-        <f t="shared" si="30"/>
-        <v>807.80410931210633</v>
+        <f t="shared" si="37"/>
+        <v>653.49217241884389</v>
       </c>
       <c r="BB23" s="1">
-        <f t="shared" si="30"/>
-        <v>799.72606821898523</v>
+        <f t="shared" si="37"/>
+        <v>646.9572506946555</v>
       </c>
       <c r="BC23" s="1">
-        <f t="shared" si="30"/>
-        <v>791.72880753679533</v>
+        <f t="shared" si="37"/>
+        <v>640.48767818770898</v>
       </c>
       <c r="BD23" s="1">
-        <f t="shared" si="30"/>
-        <v>783.81151946142734</v>
+        <f t="shared" si="37"/>
+        <v>634.0828014058319</v>
       </c>
       <c r="BE23" s="1">
-        <f t="shared" si="30"/>
-        <v>775.97340426681308</v>
+        <f t="shared" si="37"/>
+        <v>627.74197339177363</v>
       </c>
       <c r="BF23" s="1">
-        <f t="shared" si="30"/>
-        <v>768.21367022414495</v>
+        <f t="shared" si="37"/>
+        <v>621.46455365785584</v>
       </c>
       <c r="BG23" s="1">
-        <f t="shared" si="30"/>
-        <v>760.5315335219035</v>
+        <f t="shared" si="37"/>
+        <v>615.24990812127726</v>
       </c>
       <c r="BH23" s="1">
-        <f t="shared" si="30"/>
-        <v>752.92621818668442</v>
+        <f t="shared" si="37"/>
+        <v>609.09740904006446</v>
       </c>
       <c r="BI23" s="1">
-        <f t="shared" si="30"/>
-        <v>745.39695600481753</v>
+        <f t="shared" si="37"/>
+        <v>603.0064349496638</v>
       </c>
       <c r="BJ23" s="1">
-        <f t="shared" si="30"/>
-        <v>737.9429864447693</v>
+        <f t="shared" si="37"/>
+        <v>596.97637060016712</v>
       </c>
       <c r="BK23" s="1">
-        <f t="shared" si="30"/>
-        <v>730.56355658032157</v>
+        <f t="shared" si="37"/>
+        <v>591.00660689416543</v>
       </c>
       <c r="BL23" s="1">
-        <f t="shared" si="30"/>
-        <v>723.25792101451839</v>
+        <f t="shared" si="37"/>
+        <v>585.09654082522377</v>
       </c>
       <c r="BM23" s="1">
-        <f t="shared" si="30"/>
-        <v>716.02534180437317</v>
+        <f t="shared" si="37"/>
+        <v>579.24557541697152</v>
       </c>
       <c r="BN23" s="1">
-        <f t="shared" si="30"/>
-        <v>708.86508838632938</v>
+        <f t="shared" si="37"/>
+        <v>573.45311966280178</v>
       </c>
       <c r="BO23" s="1">
-        <f t="shared" si="30"/>
-        <v>701.77643750246602</v>
+        <f t="shared" si="37"/>
+        <v>567.71858846617374</v>
       </c>
       <c r="BP23" s="1">
-        <f t="shared" si="30"/>
-        <v>694.7586731274414</v>
+        <f t="shared" si="37"/>
+        <v>562.04140258151199</v>
       </c>
       <c r="BQ23" s="1">
-        <f t="shared" si="30"/>
-        <v>687.81108639616696</v>
+        <f t="shared" si="37"/>
+        <v>556.42098855569691</v>
       </c>
       <c r="BR23" s="1">
-        <f t="shared" si="30"/>
-        <v>680.93297553220532</v>
+        <f t="shared" si="37"/>
+        <v>550.85677867013999</v>
       </c>
       <c r="BS23" s="1">
-        <f t="shared" si="30"/>
-        <v>674.12364577688322</v>
+        <f t="shared" si="37"/>
+        <v>545.34821088343858</v>
       </c>
       <c r="BT23" s="1">
-        <f t="shared" si="30"/>
-        <v>667.38240931911434</v>
+        <f t="shared" si="37"/>
+        <v>539.89472877460423</v>
       </c>
       <c r="BU23" s="1">
-        <f t="shared" si="30"/>
-        <v>660.70858522592323</v>
+        <f t="shared" si="37"/>
+        <v>534.49578148685816</v>
       </c>
       <c r="BV23" s="1">
-        <f t="shared" si="30"/>
-        <v>654.10149937366396</v>
+        <f t="shared" si="37"/>
+        <v>529.15082367198954</v>
       </c>
       <c r="BW23" s="1">
-        <f t="shared" si="30"/>
-        <v>647.56048437992729</v>
+        <f t="shared" si="37"/>
+        <v>523.85931543526965</v>
       </c>
       <c r="BX23" s="1">
-        <f t="shared" si="30"/>
-        <v>641.08487953612803</v>
+        <f t="shared" si="37"/>
+        <v>518.62072228091699</v>
       </c>
       <c r="BY23" s="1">
-        <f t="shared" si="30"/>
-        <v>634.67403074076674</v>
+        <f t="shared" si="37"/>
+        <v>513.43451505810776</v>
       </c>
       <c r="BZ23" s="1">
-        <f t="shared" si="30"/>
-        <v>628.32729043335905</v>
+        <f t="shared" si="37"/>
+        <v>508.30016990752671</v>
       </c>
       <c r="CA23" s="1">
-        <f t="shared" si="30"/>
-        <v>622.0440175290255</v>
+        <f t="shared" si="37"/>
+        <v>503.21716820845143</v>
       </c>
       <c r="CB23" s="1">
-        <f t="shared" si="30"/>
-        <v>615.82357735373523</v>
+        <f t="shared" si="37"/>
+        <v>498.18499652636689</v>
       </c>
       <c r="CC23" s="1">
-        <f t="shared" si="30"/>
-        <v>609.66534158019783</v>
+        <f t="shared" si="37"/>
+        <v>493.20314656110321</v>
       </c>
       <c r="CD23" s="1">
-        <f t="shared" si="30"/>
-        <v>603.56868816439589</v>
+        <f t="shared" si="37"/>
+        <v>488.27111509549218</v>
       </c>
       <c r="CE23" s="1">
-        <f t="shared" si="30"/>
-        <v>597.53300128275191</v>
+        <f t="shared" si="37"/>
+        <v>483.38840394453723</v>
       </c>
       <c r="CF23" s="1">
-        <f t="shared" si="30"/>
-        <v>591.55767126992441</v>
+        <f t="shared" si="37"/>
+        <v>478.55451990509187</v>
       </c>
       <c r="CG23" s="1">
-        <f t="shared" si="30"/>
-        <v>585.64209455722516</v>
+        <f t="shared" si="37"/>
+        <v>473.76897470604092</v>
       </c>
       <c r="CH23" s="1">
-        <f t="shared" si="30"/>
-        <v>579.7856736116529</v>
+        <f t="shared" si="37"/>
+        <v>469.03128495898051</v>
       </c>
       <c r="CI23" s="1">
-        <f t="shared" si="30"/>
-        <v>573.9878168755364</v>
+        <f t="shared" si="37"/>
+        <v>464.34097210939069</v>
       </c>
       <c r="CJ23" s="1">
-        <f t="shared" si="30"/>
-        <v>568.24793870678104</v>
+        <f t="shared" si="37"/>
+        <v>459.69756238829677</v>
       </c>
       <c r="CK23" s="1">
-        <f t="shared" si="30"/>
-        <v>562.56545931971323</v>
+        <f t="shared" si="37"/>
+        <v>455.10058676441378</v>
       </c>
       <c r="CL23" s="1">
-        <f t="shared" si="30"/>
-        <v>556.93980472651606</v>
+        <f t="shared" si="37"/>
+        <v>450.54958089676961</v>
       </c>
       <c r="CM23" s="1">
-        <f t="shared" si="30"/>
-        <v>551.37040667925089</v>
+        <f t="shared" si="37"/>
+        <v>446.04408508780193</v>
       </c>
       <c r="CN23" s="1">
-        <f t="shared" si="30"/>
-        <v>545.85670261245832</v>
+        <f t="shared" si="37"/>
+        <v>441.58364423692393</v>
       </c>
       <c r="CO23" s="1">
-        <f t="shared" si="30"/>
-        <v>540.39813558633375</v>
+        <f t="shared" si="37"/>
+        <v>437.16780779455468</v>
       </c>
       <c r="CP23" s="1">
-        <f t="shared" si="30"/>
-        <v>534.99415423047037</v>
+        <f t="shared" si="37"/>
+        <v>432.79612971660913</v>
       </c>
       <c r="CQ23" s="1">
-        <f t="shared" si="30"/>
-        <v>529.64421268816568</v>
+        <f t="shared" si="37"/>
+        <v>428.46816841944303</v>
       </c>
       <c r="CR23" s="1">
-        <f t="shared" si="30"/>
-        <v>524.34777056128405</v>
+        <f t="shared" si="37"/>
+        <v>424.18348673524861</v>
       </c>
       <c r="CS23" s="1">
-        <f t="shared" si="30"/>
-        <v>519.10429285567125</v>
+        <f t="shared" si="37"/>
+        <v>419.9416518678961</v>
       </c>
       <c r="CT23" s="1">
-        <f t="shared" si="30"/>
-        <v>513.91324992711452</v>
+        <f t="shared" si="37"/>
+        <v>415.74223534921714</v>
       </c>
       <c r="CU23" s="1">
-        <f t="shared" si="30"/>
-        <v>508.77411742784335</v>
+        <f t="shared" si="37"/>
+        <v>411.58481299572497</v>
       </c>
       <c r="CV23" s="1">
-        <f t="shared" si="30"/>
-        <v>503.6863762535649</v>
+        <f t="shared" si="37"/>
+        <v>407.4689648657677</v>
       </c>
       <c r="CW23" s="1">
-        <f t="shared" si="30"/>
-        <v>498.64951249102927</v>
+        <f t="shared" si="37"/>
+        <v>403.39427521711002</v>
       </c>
       <c r="CX23" s="1">
-        <f t="shared" si="30"/>
-        <v>493.66301736611899</v>
+        <f t="shared" si="37"/>
+        <v>399.36033246493889</v>
       </c>
       <c r="CY23" s="1">
-        <f t="shared" ref="CY23:EP23" si="31">CX23*(1+$AO$29)</f>
-        <v>488.72638719245782</v>
+        <f t="shared" ref="CY23:EP23" si="38">CX23*(1+$AO$29)</f>
+        <v>395.36672914028952</v>
       </c>
       <c r="CZ23" s="1">
-        <f t="shared" si="31"/>
-        <v>483.83912332053325</v>
+        <f t="shared" si="38"/>
+        <v>391.41306184888663</v>
       </c>
       <c r="DA23" s="1">
-        <f t="shared" si="31"/>
-        <v>479.00073208732789</v>
+        <f t="shared" si="38"/>
+        <v>387.49893123039777</v>
       </c>
       <c r="DB23" s="1">
-        <f t="shared" si="31"/>
-        <v>474.21072476645463</v>
+        <f t="shared" si="38"/>
+        <v>383.62394191809381</v>
       </c>
       <c r="DC23" s="1">
-        <f t="shared" si="31"/>
-        <v>469.4686175187901</v>
+        <f t="shared" si="38"/>
+        <v>379.78770249891284</v>
       </c>
       <c r="DD23" s="1">
-        <f t="shared" si="31"/>
-        <v>464.77393134360221</v>
+        <f t="shared" si="38"/>
+        <v>375.9898254739237</v>
       </c>
       <c r="DE23" s="1">
-        <f t="shared" si="31"/>
-        <v>460.12619203016618</v>
+        <f t="shared" si="38"/>
+        <v>372.22992721918445</v>
       </c>
       <c r="DF23" s="1">
-        <f t="shared" si="31"/>
-        <v>455.5249301098645</v>
+        <f t="shared" si="38"/>
+        <v>368.50762794699261</v>
       </c>
       <c r="DG23" s="1">
-        <f t="shared" si="31"/>
-        <v>450.96968080876587</v>
+        <f t="shared" si="38"/>
+        <v>364.8225516675227</v>
       </c>
       <c r="DH23" s="1">
-        <f t="shared" si="31"/>
-        <v>446.45998400067822</v>
+        <f t="shared" si="38"/>
+        <v>361.17432615084749</v>
       </c>
       <c r="DI23" s="1">
-        <f t="shared" si="31"/>
-        <v>441.99538416067145</v>
+        <f t="shared" si="38"/>
+        <v>357.56258288933901</v>
       </c>
       <c r="DJ23" s="1">
-        <f t="shared" si="31"/>
-        <v>437.57543031906471</v>
+        <f t="shared" si="38"/>
+        <v>353.9869570604456</v>
       </c>
       <c r="DK23" s="1">
-        <f t="shared" si="31"/>
-        <v>433.19967601587405</v>
+        <f t="shared" si="38"/>
+        <v>350.44708748984112</v>
       </c>
       <c r="DL23" s="1">
-        <f t="shared" si="31"/>
-        <v>428.8676792557153</v>
+        <f t="shared" si="38"/>
+        <v>346.94261661494272</v>
       </c>
       <c r="DM23" s="1">
-        <f t="shared" si="31"/>
-        <v>424.57900246315813</v>
+        <f t="shared" si="38"/>
+        <v>343.47319044879328</v>
       </c>
       <c r="DN23" s="1">
-        <f t="shared" si="31"/>
-        <v>420.33321243852657</v>
+        <f t="shared" si="38"/>
+        <v>340.03845854430534</v>
       </c>
       <c r="DO23" s="1">
-        <f t="shared" si="31"/>
-        <v>416.1298803141413</v>
+        <f t="shared" si="38"/>
+        <v>336.63807395886226</v>
       </c>
       <c r="DP23" s="1">
-        <f t="shared" si="31"/>
-        <v>411.96858151099991</v>
+        <f t="shared" si="38"/>
+        <v>333.27169321927363</v>
       </c>
       <c r="DQ23" s="1">
-        <f t="shared" si="31"/>
-        <v>407.84889569588989</v>
+        <f t="shared" si="38"/>
+        <v>329.93897628708089</v>
       </c>
       <c r="DR23" s="1">
-        <f t="shared" si="31"/>
-        <v>403.770406738931</v>
+        <f t="shared" si="38"/>
+        <v>326.63958652421007</v>
       </c>
       <c r="DS23" s="1">
-        <f t="shared" si="31"/>
-        <v>399.73270267154169</v>
+        <f t="shared" si="38"/>
+        <v>323.37319065896799</v>
       </c>
       <c r="DT23" s="1">
-        <f t="shared" si="31"/>
-        <v>395.73537564482626</v>
+        <f t="shared" si="38"/>
+        <v>320.13945875237829</v>
       </c>
       <c r="DU23" s="1">
-        <f t="shared" si="31"/>
-        <v>391.77802188837802</v>
+        <f t="shared" si="38"/>
+        <v>316.9380641648545</v>
       </c>
       <c r="DV23" s="1">
-        <f t="shared" si="31"/>
-        <v>387.86024166949426</v>
+        <f t="shared" si="38"/>
+        <v>313.76868352320594</v>
       </c>
       <c r="DW23" s="1">
-        <f t="shared" si="31"/>
-        <v>383.98163925279931</v>
+        <f t="shared" si="38"/>
+        <v>310.63099668797389</v>
       </c>
       <c r="DX23" s="1">
-        <f t="shared" si="31"/>
-        <v>380.1418228602713</v>
+        <f t="shared" si="38"/>
+        <v>307.52468672109416</v>
       </c>
       <c r="DY23" s="1">
-        <f t="shared" si="31"/>
-        <v>376.3404046316686</v>
+        <f t="shared" si="38"/>
+        <v>304.44943985388323</v>
       </c>
       <c r="DZ23" s="1">
-        <f t="shared" si="31"/>
-        <v>372.57700058535193</v>
+        <f t="shared" si="38"/>
+        <v>301.40494545534438</v>
       </c>
       <c r="EA23" s="1">
-        <f t="shared" si="31"/>
-        <v>368.85123057949841</v>
+        <f t="shared" si="38"/>
+        <v>298.39089600079092</v>
       </c>
       <c r="EB23" s="1">
-        <f t="shared" si="31"/>
-        <v>365.16271827370343</v>
+        <f t="shared" si="38"/>
+        <v>295.40698704078301</v>
       </c>
       <c r="EC23" s="1">
-        <f t="shared" si="31"/>
-        <v>361.51109109096637</v>
+        <f t="shared" si="38"/>
+        <v>292.4529171703752</v>
       </c>
       <c r="ED23" s="1">
-        <f t="shared" si="31"/>
-        <v>357.89598018005671</v>
+        <f t="shared" si="38"/>
+        <v>289.52838799867146</v>
       </c>
       <c r="EE23" s="1">
-        <f t="shared" si="31"/>
-        <v>354.31702037825613</v>
+        <f t="shared" si="38"/>
+        <v>286.63310411868474</v>
       </c>
       <c r="EF23" s="1">
-        <f t="shared" si="31"/>
-        <v>350.77385017447358</v>
+        <f t="shared" si="38"/>
+        <v>283.76677307749787</v>
       </c>
       <c r="EG23" s="1">
-        <f t="shared" si="31"/>
-        <v>347.26611167272887</v>
+        <f t="shared" si="38"/>
+        <v>280.92910534672291</v>
       </c>
       <c r="EH23" s="1">
-        <f t="shared" si="31"/>
-        <v>343.79345055600157</v>
+        <f t="shared" si="38"/>
+        <v>278.11981429325567</v>
       </c>
       <c r="EI23" s="1">
-        <f t="shared" si="31"/>
-        <v>340.35551605044157</v>
+        <f t="shared" si="38"/>
+        <v>275.33861615032311</v>
       </c>
       <c r="EJ23" s="1">
-        <f t="shared" si="31"/>
-        <v>336.95196088993714</v>
+        <f t="shared" si="38"/>
+        <v>272.58522998881989</v>
       </c>
       <c r="EK23" s="1">
-        <f t="shared" si="31"/>
-        <v>333.58244128103775</v>
+        <f t="shared" si="38"/>
+        <v>269.85937768893172</v>
       </c>
       <c r="EL23" s="1">
-        <f t="shared" si="31"/>
-        <v>330.24661686822736</v>
+        <f t="shared" si="38"/>
+        <v>267.1607839120424</v>
       </c>
       <c r="EM23" s="1">
-        <f t="shared" si="31"/>
-        <v>326.9441506995451</v>
+        <f t="shared" si="38"/>
+        <v>264.48917607292196</v>
       </c>
       <c r="EN23" s="1">
-        <f t="shared" si="31"/>
-        <v>323.67470919254964</v>
+        <f t="shared" si="38"/>
+        <v>261.84428431219277</v>
       </c>
       <c r="EO23" s="1">
-        <f t="shared" si="31"/>
-        <v>320.43796210062413</v>
+        <f t="shared" si="38"/>
+        <v>259.22584146907082</v>
       </c>
       <c r="EP23" s="1">
-        <f t="shared" si="31"/>
-        <v>317.23358247961789</v>
+        <f t="shared" si="38"/>
+        <v>256.6335830543801</v>
       </c>
     </row>
     <row r="24" spans="2:146" x14ac:dyDescent="0.3">
@@ -3385,51 +3381,51 @@
         <v>2</v>
       </c>
       <c r="G24" s="5">
-        <f>67.8+19.8+1.5</f>
+        <f t="shared" ref="G24:O24" si="39">67.8+19.8+1.5</f>
         <v>89.1</v>
       </c>
       <c r="H24" s="5">
-        <f>67.8+19.8+1.5</f>
+        <f t="shared" si="39"/>
         <v>89.1</v>
       </c>
       <c r="I24" s="5">
-        <f>67.8+19.8+1.5</f>
+        <f t="shared" si="39"/>
         <v>89.1</v>
       </c>
       <c r="J24" s="5">
-        <f>67.8+19.8+1.5</f>
+        <f t="shared" si="39"/>
         <v>89.1</v>
       </c>
       <c r="K24" s="5">
-        <f>67.8+19.8+1.5</f>
+        <f t="shared" si="39"/>
         <v>89.1</v>
       </c>
       <c r="L24" s="5">
-        <f>67.8+19.8+1.5</f>
+        <f t="shared" si="39"/>
         <v>89.1</v>
       </c>
       <c r="M24" s="5">
-        <f>67.8+19.8+1.5</f>
+        <f t="shared" si="39"/>
         <v>89.1</v>
       </c>
       <c r="N24" s="5">
-        <f>67.8+19.8+1.5</f>
+        <f t="shared" si="39"/>
         <v>89.1</v>
       </c>
       <c r="O24" s="5">
-        <f>67.8+19.8+1.5</f>
+        <f t="shared" si="39"/>
         <v>89.1</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" ref="P24:R24" si="32">67.8+19.8+1.5</f>
+        <f t="shared" ref="P24:R24" si="40">67.8+19.8+1.5</f>
         <v>89.1</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>89.1</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>89.1</v>
       </c>
       <c r="Y24" s="5">
@@ -3449,39 +3445,39 @@
         <v>89.1</v>
       </c>
       <c r="AC24" s="5">
-        <f t="shared" ref="AC24:AK24" si="33">67.8+19.8+1.5</f>
+        <f t="shared" ref="AC24:AK24" si="41">67.8+19.8+1.5</f>
         <v>89.1</v>
       </c>
       <c r="AD24" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>89.1</v>
       </c>
       <c r="AE24" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>89.1</v>
       </c>
       <c r="AF24" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>89.1</v>
       </c>
       <c r="AG24" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>89.1</v>
       </c>
       <c r="AH24" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>89.1</v>
       </c>
       <c r="AI24" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>89.1</v>
       </c>
       <c r="AJ24" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>89.1</v>
       </c>
       <c r="AK24" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>89.1</v>
       </c>
     </row>
@@ -3490,52 +3486,52 @@
         <v>29</v>
       </c>
       <c r="G25" s="7">
-        <f>G23/G24</f>
+        <f t="shared" ref="G25:O25" si="42">G23/G24</f>
         <v>0.1661054994388326</v>
       </c>
       <c r="H25" s="7">
-        <f>H23/H24</f>
+        <f t="shared" si="42"/>
         <v>0.28170594837261481</v>
       </c>
       <c r="I25" s="7">
-        <f>I23/I24</f>
+        <f t="shared" si="42"/>
         <v>0.36588103254769888</v>
       </c>
       <c r="J25" s="7">
-        <f>J23/J24</f>
+        <f t="shared" si="42"/>
         <v>0.15375982042648681</v>
       </c>
       <c r="K25" s="7">
-        <f>K23/K24</f>
+        <f t="shared" si="42"/>
         <v>0.23120089786756401</v>
       </c>
       <c r="L25" s="7">
-        <f>L23/L24</f>
+        <f t="shared" si="42"/>
         <v>0.4399551066217729</v>
       </c>
       <c r="M25" s="7">
-        <f>M23/M24</f>
+        <f t="shared" si="42"/>
         <v>0.6038159371492714</v>
       </c>
       <c r="N25" s="7">
-        <f>N23/N24</f>
+        <f t="shared" si="42"/>
         <v>0.96071829405162823</v>
       </c>
       <c r="O25" s="7">
-        <f>O23/O24</f>
-        <v>0.47770129741863121</v>
+        <f t="shared" si="42"/>
+        <v>0.18742985409652085</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" ref="P25:R25" si="34">P23/P24</f>
-        <v>0.61197463524130191</v>
+        <f t="shared" ref="P25:R25" si="43">P23/P24</f>
+        <v>0.37779955106621793</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="34"/>
-        <v>0.82126704826038155</v>
+        <f t="shared" si="43"/>
+        <v>0.5870919640852974</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="34"/>
-        <v>0.76837586980920303</v>
+        <f t="shared" si="43"/>
+        <v>0.5342007856341191</v>
       </c>
       <c r="Y25" s="7">
         <f>Y23/Y24</f>
@@ -3547,136 +3543,136 @@
       </c>
       <c r="AA25" s="7">
         <f>AA23/AA24</f>
-        <v>2.6793188507295205</v>
+        <v>1.6865221548821547</v>
       </c>
       <c r="AB25" s="7">
         <f>AB23/AB24</f>
-        <v>5.6595447225319893</v>
+        <v>4.0247665018181848</v>
       </c>
       <c r="AC25" s="7">
-        <f t="shared" ref="AC25:AK25" si="35">AC23/AC24</f>
-        <v>6.7252249781850528</v>
+        <f t="shared" ref="AC25:AK25" si="44">AC23/AC24</f>
+        <v>4.8591610861979824</v>
       </c>
       <c r="AD25" s="7">
-        <f t="shared" si="35"/>
-        <v>7.5737822168776647</v>
+        <f t="shared" si="44"/>
+        <v>5.48275161355064</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" si="35"/>
-        <v>8.4180701842012464</v>
+        <f t="shared" si="44"/>
+        <v>6.0924058813197641</v>
       </c>
       <c r="AF25" s="7">
-        <f t="shared" si="35"/>
-        <v>8.8283147599401737</v>
+        <f t="shared" si="44"/>
+        <v>6.6719023810515852</v>
       </c>
       <c r="AG25" s="7">
-        <f t="shared" si="35"/>
-        <v>9.1676162542240807</v>
+        <f t="shared" si="44"/>
+        <v>7.3491938187363699</v>
       </c>
       <c r="AH25" s="7">
-        <f t="shared" si="35"/>
-        <v>9.5188187003169293</v>
+        <f t="shared" si="44"/>
+        <v>7.6487186571637293</v>
       </c>
       <c r="AI25" s="7">
-        <f t="shared" si="35"/>
-        <v>9.8823252082101281</v>
+        <f t="shared" si="44"/>
+        <v>7.9590905241081771</v>
       </c>
       <c r="AJ25" s="7">
-        <f t="shared" si="35"/>
-        <v>10.258552484988444</v>
+        <f t="shared" si="44"/>
+        <v>8.2806860712368451</v>
       </c>
       <c r="AK25" s="7">
-        <f t="shared" si="35"/>
-        <v>10.647931301926933</v>
+        <f t="shared" si="44"/>
+        <v>8.6138949753403509</v>
       </c>
     </row>
     <row r="27" spans="2:146" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10">
-        <f t="shared" ref="G27:M27" si="36">K3/G3-1</f>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9">
+        <f t="shared" ref="K27:M27" si="45">K3/G3-1</f>
         <v>0.29323583180987201</v>
       </c>
-      <c r="L27" s="10">
-        <f t="shared" si="36"/>
+      <c r="L27" s="9">
+        <f t="shared" si="45"/>
         <v>0.29827315541601251</v>
       </c>
-      <c r="M27" s="10">
-        <f t="shared" si="36"/>
+      <c r="M27" s="9">
+        <f t="shared" si="45"/>
         <v>0.34616523541604982</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="9">
         <f>N3/J3-1</f>
         <v>0.25744258576694068</v>
       </c>
-      <c r="O27" s="10">
-        <f t="shared" ref="O27:R27" si="37">O3/K3-1</f>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="37"/>
+      <c r="O27" s="9">
+        <f t="shared" ref="O27:R27" si="46">O3/K3-1</f>
+        <v>0.19918009612666099</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="46"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="37"/>
+      <c r="Q27" s="9">
+        <f t="shared" si="46"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="R27" s="10">
-        <f t="shared" si="37"/>
+      <c r="R27" s="9">
+        <f t="shared" si="46"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10">
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9">
         <f>Z3/Y3-1</f>
         <v>0.29858078602620086</v>
       </c>
-      <c r="AA27" s="10">
-        <f t="shared" ref="AA27:AK27" si="38">AA3/Z3-1</f>
-        <v>0.16699153305710679</v>
-      </c>
-      <c r="AB27" s="10">
-        <f t="shared" si="38"/>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="AC27" s="10">
-        <f t="shared" si="38"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="AD27" s="10">
-        <f t="shared" si="38"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="AE27" s="10">
-        <f t="shared" si="38"/>
+      <c r="AA27" s="9">
+        <f t="shared" ref="AA27:AK27" si="47">AA3/Z3-1</f>
+        <v>0.16044556536359789</v>
+      </c>
+      <c r="AB27" s="9">
+        <f t="shared" si="47"/>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="AC27" s="9">
+        <f t="shared" si="47"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AD27" s="9">
+        <f t="shared" si="47"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AF27" s="10">
-        <f t="shared" si="38"/>
+      <c r="AE27" s="9">
+        <f t="shared" si="47"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AG27" s="10">
-        <f t="shared" si="38"/>
+      <c r="AF27" s="9">
+        <f t="shared" si="47"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AH27" s="10">
-        <f t="shared" si="38"/>
+      <c r="AG27" s="9">
+        <f t="shared" si="47"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AI27" s="10">
-        <f t="shared" si="38"/>
+      <c r="AH27" s="9">
+        <f t="shared" si="47"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AJ27" s="10">
-        <f t="shared" si="38"/>
+      <c r="AI27" s="9">
+        <f t="shared" si="47"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AK27" s="10">
-        <f t="shared" si="38"/>
+      <c r="AJ27" s="9">
+        <f t="shared" si="47"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AK27" s="9">
+        <f t="shared" si="47"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -3684,104 +3680,104 @@
       <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="10">
-        <f t="shared" ref="G28:N28" si="39">G5/G3</f>
+      <c r="G28" s="9">
+        <f t="shared" ref="G28:M28" si="48">G5/G3</f>
         <v>0.26581352833638022</v>
       </c>
-      <c r="H28" s="10">
-        <f t="shared" si="39"/>
+      <c r="H28" s="9">
+        <f t="shared" si="48"/>
         <v>0.26200941915227627</v>
       </c>
-      <c r="I28" s="10">
-        <f t="shared" si="39"/>
+      <c r="I28" s="9">
+        <f t="shared" si="48"/>
         <v>0.26695291679005029</v>
       </c>
-      <c r="J28" s="10">
-        <f t="shared" si="39"/>
+      <c r="J28" s="9">
+        <f t="shared" si="48"/>
         <v>0.27672242699177768</v>
       </c>
-      <c r="K28" s="10">
-        <f t="shared" si="39"/>
+      <c r="K28" s="9">
+        <f t="shared" si="48"/>
         <v>0.26547921967769289</v>
       </c>
-      <c r="L28" s="10">
-        <f t="shared" si="39"/>
+      <c r="L28" s="9">
+        <f t="shared" si="48"/>
         <v>0.28029020556227324</v>
       </c>
-      <c r="M28" s="10">
-        <f t="shared" si="39"/>
+      <c r="M28" s="9">
+        <f t="shared" si="48"/>
         <v>0.29399472063352405</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <f>N5/N3</f>
         <v>0.32266065388951526</v>
       </c>
-      <c r="O28" s="10">
-        <f t="shared" ref="O28:R28" si="40">O5/O3</f>
+      <c r="O28" s="9">
+        <f t="shared" ref="O28:R28" si="49">O5/O3</f>
+        <v>0.30295885889425911</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="49"/>
+        <v>0.32</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="49"/>
         <v>0.33</v>
       </c>
-      <c r="P28" s="10">
-        <f t="shared" si="40"/>
-        <v>0.33</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" si="40"/>
+      <c r="R28" s="9">
+        <f t="shared" si="49"/>
         <v>0.34</v>
       </c>
-      <c r="R28" s="10">
-        <f t="shared" si="40"/>
-        <v>0.35</v>
-      </c>
-      <c r="Y28" s="10">
+      <c r="Y28" s="9">
         <f>Y5/Y3</f>
         <v>0.26816905801621954</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="Z28" s="9">
         <f>Z5/Z3</f>
         <v>0.29216957905482505</v>
       </c>
-      <c r="AA28" s="10">
-        <f t="shared" ref="AA28:AK28" si="41">AA5/AA3</f>
-        <v>0.33793890678715716</v>
-      </c>
-      <c r="AB28" s="10">
-        <f t="shared" si="41"/>
+      <c r="AA28" s="9">
+        <f t="shared" ref="AA28:AK28" si="50">AA5/AA3</f>
+        <v>0.32424343722347854</v>
+      </c>
+      <c r="AB28" s="9">
+        <f t="shared" si="50"/>
+        <v>0.34</v>
+      </c>
+      <c r="AC28" s="9">
+        <f t="shared" si="50"/>
         <v>0.36</v>
       </c>
-      <c r="AC28" s="10">
-        <f t="shared" si="41"/>
+      <c r="AD28" s="9">
+        <f t="shared" si="50"/>
+        <v>0.37</v>
+      </c>
+      <c r="AE28" s="9">
+        <f t="shared" si="50"/>
         <v>0.38</v>
       </c>
-      <c r="AD28" s="10">
-        <f t="shared" si="41"/>
+      <c r="AF28" s="9">
+        <f t="shared" si="50"/>
         <v>0.39</v>
       </c>
-      <c r="AE28" s="10">
-        <f t="shared" si="41"/>
+      <c r="AG28" s="9">
+        <f t="shared" si="50"/>
+        <v>0.4</v>
+      </c>
+      <c r="AH28" s="9">
+        <f t="shared" si="50"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="AF28" s="10">
-        <f t="shared" si="41"/>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="AG28" s="10">
-        <f t="shared" si="41"/>
+      <c r="AI28" s="9">
+        <f t="shared" si="50"/>
+        <v>0.4</v>
+      </c>
+      <c r="AJ28" s="9">
+        <f t="shared" si="50"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="AH28" s="10">
-        <f t="shared" si="41"/>
-        <v>0.4</v>
-      </c>
-      <c r="AI28" s="10">
-        <f t="shared" si="41"/>
-        <v>0.4</v>
-      </c>
-      <c r="AJ28" s="10">
-        <f t="shared" si="41"/>
-        <v>0.4</v>
-      </c>
-      <c r="AK28" s="10">
-        <f t="shared" si="41"/>
+      <c r="AK28" s="9">
+        <f t="shared" si="50"/>
         <v>0.4</v>
       </c>
     </row>
@@ -3789,95 +3785,95 @@
       <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10">
-        <f t="shared" ref="G29:M29" si="42">K6/G6-1</f>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
+        <f t="shared" ref="K29:M29" si="51">K6/G6-1</f>
         <v>0.24970828471411899</v>
       </c>
-      <c r="L29" s="10">
-        <f t="shared" si="42"/>
+      <c r="L29" s="9">
+        <f t="shared" si="51"/>
         <v>0.34104750304506704</v>
       </c>
-      <c r="M29" s="10">
-        <f t="shared" si="42"/>
+      <c r="M29" s="9">
+        <f t="shared" si="51"/>
         <v>0.54914809960681521</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <f>N6/J6-1</f>
         <v>0.45657276995305152</v>
       </c>
-      <c r="O29" s="10">
-        <f t="shared" ref="O29:R29" si="43">O6/K6-1</f>
+      <c r="O29" s="9">
+        <f t="shared" ref="O29:R29" si="52">O6/K6-1</f>
+        <v>0.43790849673202614</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="52"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P29" s="10">
-        <f t="shared" si="43"/>
+      <c r="Q29" s="9">
+        <f t="shared" si="52"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="43"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="R29" s="10">
-        <f t="shared" si="43"/>
+      <c r="R29" s="9">
+        <f t="shared" si="52"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10">
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9">
         <f>Z6/Y6-1</f>
         <v>0.39538414819313683</v>
       </c>
-      <c r="AA29" s="10">
-        <f t="shared" ref="AA29:AK29" si="44">AA6/Z6-1</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="AB29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AA29" s="9">
+        <f t="shared" ref="AA29:AK29" si="53">AA6/Z6-1</f>
+        <v>0.33214363438520111</v>
+      </c>
+      <c r="AB29" s="9">
+        <f t="shared" si="53"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AC29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AC29" s="9">
+        <f t="shared" si="53"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AD29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AD29" s="9">
+        <f t="shared" si="53"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AE29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AE29" s="9">
+        <f t="shared" si="53"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AF29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AF29" s="9">
+        <f t="shared" si="53"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AG29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AG29" s="9">
+        <f t="shared" si="53"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AH29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AH29" s="9">
+        <f t="shared" si="53"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AI29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AI29" s="9">
+        <f t="shared" si="53"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AJ29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AJ29" s="9">
+        <f t="shared" si="53"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AK29" s="10">
-        <f t="shared" si="44"/>
+      <c r="AK29" s="9">
+        <f t="shared" si="53"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AN29" t="s">
         <v>56</v>
       </c>
-      <c r="AO29" s="10">
+      <c r="AO29" s="9">
         <v>-0.01</v>
       </c>
     </row>
@@ -3885,110 +3881,110 @@
       <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="10">
-        <f t="shared" ref="G30:N30" si="45">G9/G3</f>
+      <c r="G30" s="9">
+        <f t="shared" ref="G30:M30" si="54">G9/G3</f>
         <v>1.1151736745886653E-2</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" si="45"/>
+      <c r="H30" s="9">
+        <f t="shared" si="54"/>
         <v>8.4772370486656205E-3</v>
       </c>
-      <c r="I30" s="10">
-        <f t="shared" si="45"/>
+      <c r="I30" s="9">
+        <f t="shared" si="54"/>
         <v>8.4394432928634883E-3</v>
       </c>
-      <c r="J30" s="10">
-        <f t="shared" si="45"/>
+      <c r="J30" s="9">
+        <f t="shared" si="54"/>
         <v>2.2540402608449108E-2</v>
       </c>
-      <c r="K30" s="10">
-        <f t="shared" si="45"/>
+      <c r="K30" s="9">
+        <f t="shared" si="54"/>
         <v>1.1309018942606729E-2</v>
       </c>
-      <c r="L30" s="10">
-        <f t="shared" si="45"/>
+      <c r="L30" s="9">
+        <f t="shared" si="54"/>
         <v>1.4026602176541716E-2</v>
       </c>
-      <c r="M30" s="10">
-        <f t="shared" si="45"/>
+      <c r="M30" s="9">
+        <f t="shared" si="54"/>
         <v>1.0338759348878134E-2</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <f>N9/N3</f>
         <v>1.3979706877113867E-2</v>
       </c>
-      <c r="O30" s="10">
-        <f t="shared" ref="O30:R30" si="46">O9/O3</f>
-        <v>0.01</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="46"/>
-        <v>0.01</v>
-      </c>
-      <c r="Q30" s="10">
-        <f t="shared" si="46"/>
-        <v>0.01</v>
-      </c>
-      <c r="R30" s="10">
-        <f t="shared" si="46"/>
-        <v>0.01</v>
-      </c>
-      <c r="Y30" s="10">
+      <c r="O30" s="9">
+        <f t="shared" ref="O30:R30" si="55">O9/O3</f>
+        <v>2.1926205351880234E-2</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="55"/>
+        <v>1.9557331370590403E-2</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="55"/>
+        <v>1.7789169647468392E-2</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="55"/>
+        <v>1.8234400274496351E-2</v>
+      </c>
+      <c r="Y30" s="9">
         <f>Y9/Y3</f>
         <v>1.290548970679975E-2</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z30" s="9">
         <f>Z9/Z3</f>
         <v>1.2430192758061608E-2</v>
       </c>
-      <c r="AA30" s="10">
-        <f t="shared" ref="AA30:AK30" si="47">AA9/AA3</f>
-        <v>0.01</v>
-      </c>
-      <c r="AB30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="AC30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="AD30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="AE30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="AF30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="AG30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="AH30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="AI30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="AJ30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="AK30" s="10">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
+      <c r="AA30" s="9">
+        <f t="shared" ref="AA30:AK30" si="56">AA9/AA3</f>
+        <v>1.9249776195478376E-2</v>
+      </c>
+      <c r="AB30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
+      </c>
+      <c r="AC30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
+      </c>
+      <c r="AD30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
+      </c>
+      <c r="AE30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
+      </c>
+      <c r="AF30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
+      </c>
+      <c r="AH30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
+      </c>
+      <c r="AI30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
+      </c>
+      <c r="AJ30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
+      </c>
+      <c r="AK30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.02</v>
       </c>
       <c r="AN30" t="s">
         <v>57</v>
       </c>
-      <c r="AO30" s="10">
+      <c r="AO30" s="9">
         <v>0.09</v>
       </c>
     </row>
@@ -3996,104 +3992,104 @@
       <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="10">
-        <f t="shared" ref="G31:N31" si="48">G10/G3</f>
+      <c r="G31" s="9">
+        <f t="shared" ref="G31:M31" si="57">G10/G3</f>
         <v>4.570383912248629E-3</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" si="48"/>
+      <c r="H31" s="9">
+        <f t="shared" si="57"/>
         <v>6.2794348508634227E-3</v>
       </c>
-      <c r="I31" s="10">
-        <f t="shared" si="48"/>
+      <c r="I31" s="9">
+        <f t="shared" si="57"/>
         <v>6.9588392063962105E-3</v>
       </c>
-      <c r="J31" s="10">
-        <f t="shared" si="48"/>
+      <c r="J31" s="9">
+        <f t="shared" si="57"/>
         <v>5.5287779982988372E-3</v>
       </c>
-      <c r="K31" s="10">
-        <f t="shared" si="48"/>
+      <c r="K31" s="9">
+        <f t="shared" si="57"/>
         <v>6.2199604184337018E-3</v>
       </c>
-      <c r="L31" s="10">
-        <f t="shared" si="48"/>
+      <c r="L31" s="9">
+        <f t="shared" si="57"/>
         <v>4.7158403869407492E-3</v>
       </c>
-      <c r="M31" s="10">
-        <f t="shared" si="48"/>
+      <c r="M31" s="9">
+        <f t="shared" si="57"/>
         <v>6.8191816981962167E-3</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <f>N10/N3</f>
         <v>8.1172491544532141E-3</v>
       </c>
-      <c r="O31" s="10">
-        <f t="shared" ref="O31:R31" si="49">O10/O3</f>
+      <c r="O31" s="9">
+        <f t="shared" ref="O31:R31" si="58">O10/O3</f>
+        <v>7.8981492396557832E-3</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="58"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="P31" s="10">
-        <f t="shared" si="49"/>
+      <c r="Q31" s="9">
+        <f t="shared" si="58"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q31" s="10">
-        <f t="shared" si="49"/>
+      <c r="R31" s="9">
+        <f t="shared" si="58"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R31" s="10">
-        <f t="shared" si="49"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Y31" s="10">
+      <c r="Y31" s="9">
         <f>Y10/Y3</f>
         <v>5.8873986275732992E-3</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z31" s="9">
         <f>Z10/Z3</f>
         <v>6.5153425809163501E-3</v>
       </c>
-      <c r="AA31" s="10">
-        <f t="shared" ref="AA31:AK31" si="50">AA10/AA3</f>
-        <v>7.9999999999999984E-3</v>
-      </c>
-      <c r="AB31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AA31" s="9">
+        <f t="shared" ref="AA31:AK31" si="59">AA10/AA3</f>
+        <v>7.9776454211923486E-3</v>
+      </c>
+      <c r="AB31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AC31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AC31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AD31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AD31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AE31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AE31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AF31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AG31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AG31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AH31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AH31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AI31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AI31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AJ31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AK31" s="10">
-        <f t="shared" si="50"/>
+      <c r="AK31" s="9">
+        <f t="shared" si="59"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AN31" t="s">
@@ -4101,223 +4097,223 @@
       </c>
       <c r="AO31" s="5">
         <f>NPV(AO30,AA23:EP23)</f>
-        <v>8212.1559229930172</v>
+        <v>6407.6652977204085</v>
       </c>
     </row>
     <row r="32" spans="2:146" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="10">
-        <f t="shared" ref="G32:N32" si="51">G13/G3</f>
+      <c r="G32" s="9">
+        <f t="shared" ref="G32:M32" si="60">G13/G3</f>
         <v>1.6087751371115143E-2</v>
       </c>
-      <c r="H32" s="10">
-        <f t="shared" si="51"/>
+      <c r="H32" s="9">
+        <f t="shared" si="60"/>
         <v>5.3218210361067469E-2</v>
       </c>
-      <c r="I32" s="10">
-        <f t="shared" si="51"/>
+      <c r="I32" s="9">
+        <f t="shared" si="60"/>
         <v>6.6183002665087295E-2</v>
       </c>
-      <c r="J32" s="10">
-        <f t="shared" si="51"/>
+      <c r="J32" s="9">
+        <f t="shared" si="60"/>
         <v>3.8843209526509749E-2</v>
       </c>
-      <c r="K32" s="10">
-        <f t="shared" si="51"/>
+      <c r="K32" s="9">
+        <f t="shared" si="60"/>
         <v>3.025162567147293E-2</v>
       </c>
-      <c r="L32" s="10">
-        <f t="shared" si="51"/>
+      <c r="L32" s="9">
+        <f t="shared" si="60"/>
         <v>7.1584038694074925E-2</v>
       </c>
-      <c r="M32" s="10">
-        <f t="shared" si="51"/>
+      <c r="M32" s="9">
+        <f t="shared" si="60"/>
         <v>8.8429388473383261E-2</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <f>N13/N3</f>
         <v>9.6956031567080103E-2</v>
       </c>
-      <c r="O32" s="10">
-        <f t="shared" ref="O32:R32" si="52">O13/O3</f>
-        <v>8.5049596484090439E-2</v>
-      </c>
-      <c r="P32" s="10">
-        <f t="shared" si="52"/>
-        <v>9.7668471689185632E-2</v>
-      </c>
-      <c r="Q32" s="10">
-        <f t="shared" si="52"/>
-        <v>0.11088272537730255</v>
-      </c>
-      <c r="R32" s="10">
-        <f t="shared" si="52"/>
-        <v>0.10196225675211999</v>
-      </c>
-      <c r="Y32" s="10">
+      <c r="O32" s="9">
+        <f t="shared" ref="O32:R32" si="61">O13/O3</f>
+        <v>2.9942237416008495E-2</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="61"/>
+        <v>7.8111140318595271E-2</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="61"/>
+        <v>9.309355572983416E-2</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="61"/>
+        <v>8.372785647762368E-2</v>
+      </c>
+      <c r="Y32" s="9">
         <f>Y13/Y3</f>
         <v>4.4759825327510855E-2</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="Z32" s="9">
         <f>Z13/Z3</f>
         <v>7.4160811865729995E-2</v>
       </c>
-      <c r="AA32" s="10">
-        <f t="shared" ref="AA32:AK32" si="53">AA13/AA3</f>
-        <v>9.9525207227984552E-2</v>
-      </c>
-      <c r="AB32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.17733476867422537</v>
-      </c>
-      <c r="AC32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.19428541253856291</v>
-      </c>
-      <c r="AD32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.20586762562782171</v>
-      </c>
-      <c r="AE32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.21744983871708054</v>
-      </c>
-      <c r="AF32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.21903205180633945</v>
-      </c>
-      <c r="AG32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.22061426489559816</v>
-      </c>
-      <c r="AH32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.2221811166927283</v>
-      </c>
-      <c r="AI32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.22373275633648829</v>
-      </c>
-      <c r="AJ32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.22526933151768738</v>
-      </c>
-      <c r="AK32" s="10">
-        <f t="shared" si="53"/>
-        <v>0.22679098849324378</v>
+      <c r="AA32" s="9">
+        <f t="shared" ref="AA32:AK32" si="62">AA13/AA3</f>
+        <v>7.3074365197232607E-2</v>
+      </c>
+      <c r="AB32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.14078272297622468</v>
+      </c>
+      <c r="AC32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.1559822385736889</v>
+      </c>
+      <c r="AD32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.16598223857368882</v>
+      </c>
+      <c r="AE32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.17598223857368886</v>
+      </c>
+      <c r="AF32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.1859822385736889</v>
+      </c>
+      <c r="AG32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.19769114887879871</v>
+      </c>
+      <c r="AH32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.19938346782172292</v>
+      </c>
+      <c r="AI32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.20105935648364798</v>
+      </c>
+      <c r="AJ32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.20271897438186498</v>
+      </c>
+      <c r="AK32" s="9">
+        <f t="shared" si="62"/>
+        <v>0.20436247948495367</v>
       </c>
       <c r="AN32" t="s">
         <v>59</v>
       </c>
       <c r="AO32" s="5">
         <f>Main!D8</f>
-        <v>-1629.1</v>
+        <v>-1676.2</v>
       </c>
     </row>
     <row r="33" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="10">
-        <f t="shared" ref="G33:N33" si="54">G21/G20</f>
+      <c r="G33" s="9">
+        <f t="shared" ref="G33:M33" si="63">G21/G20</f>
         <v>-0.2142857142857145</v>
       </c>
-      <c r="H33" s="10">
-        <f t="shared" si="54"/>
+      <c r="H33" s="9">
+        <f t="shared" si="63"/>
         <v>-9.8507462686567224E-2</v>
       </c>
-      <c r="I33" s="10">
-        <f t="shared" si="54"/>
+      <c r="I33" s="9">
+        <f t="shared" si="63"/>
         <v>1.8987341772151913E-2</v>
       </c>
-      <c r="J33" s="10">
-        <f t="shared" si="54"/>
+      <c r="J33" s="9">
+        <f t="shared" si="63"/>
         <v>0.11926605504587169</v>
       </c>
-      <c r="K33" s="10">
-        <f t="shared" si="54"/>
+      <c r="K33" s="9">
+        <f t="shared" si="63"/>
         <v>4.6822742474916468E-2</v>
       </c>
-      <c r="L33" s="10">
-        <f t="shared" si="54"/>
+      <c r="L33" s="9">
+        <f t="shared" si="63"/>
         <v>-3.4155597722960181E-2</v>
       </c>
-      <c r="M33" s="10">
-        <f t="shared" si="54"/>
+      <c r="M33" s="9">
+        <f t="shared" si="63"/>
         <v>1.3466154584733563</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="9">
         <f>N21/N20</f>
         <v>0.12248186946011275</v>
       </c>
-      <c r="O33" s="10">
-        <f t="shared" ref="O33:R33" si="55">O21/O20</f>
+      <c r="O33" s="9">
+        <f t="shared" ref="O33:R33" si="64">O21/O20</f>
+        <v>-0.71052631578947323</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="64"/>
         <v>0.15</v>
       </c>
-      <c r="P33" s="10">
-        <f t="shared" si="55"/>
+      <c r="Q33" s="9">
+        <f t="shared" si="64"/>
         <v>0.15</v>
       </c>
-      <c r="Q33" s="10">
-        <f t="shared" si="55"/>
+      <c r="R33" s="9">
+        <f t="shared" si="64"/>
         <v>0.15</v>
       </c>
-      <c r="R33" s="10">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
-      </c>
-      <c r="Y33" s="10">
+      <c r="Y33" s="9">
         <f>Y21/Y20</f>
         <v>-2.845188284518832E-2</v>
       </c>
-      <c r="Z33" s="10">
+      <c r="Z33" s="9">
         <f>Z21/Z20</f>
         <v>166.06250000003303</v>
       </c>
-      <c r="AA33" s="10">
-        <f t="shared" ref="AA33:AK33" si="56">AA21/AA20</f>
-        <v>0.14999999999999988</v>
-      </c>
-      <c r="AB33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AA33" s="9">
+        <f t="shared" ref="AA33:AK33" si="65">AA21/AA20</f>
+        <v>0.10476989912350429</v>
+      </c>
+      <c r="AB33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
-      <c r="AC33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AC33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
-      <c r="AD33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AD33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
-      <c r="AE33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AE33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
-      <c r="AF33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AF33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
-      <c r="AG33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AG33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
-      <c r="AH33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AH33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
-      <c r="AI33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AI33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
-      <c r="AJ33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AJ33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
-      <c r="AK33" s="10">
-        <f t="shared" si="56"/>
+      <c r="AK33" s="9">
+        <f t="shared" si="65"/>
         <v>0.15</v>
       </c>
       <c r="AN33" t="s">
@@ -4325,111 +4321,111 @@
       </c>
       <c r="AO33" s="5">
         <f>AO31+AO32</f>
-        <v>6583.0559229930168</v>
+        <v>4731.4652977204087</v>
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="10">
-        <f t="shared" ref="G34:N34" si="57">G22/G20</f>
+      <c r="G34" s="9">
+        <f t="shared" ref="G34:M34" si="66">G22/G20</f>
         <v>0.33333333333333365</v>
       </c>
-      <c r="H34" s="10">
-        <f t="shared" si="57"/>
+      <c r="H34" s="9">
+        <f t="shared" si="66"/>
         <v>0.3492537313432838</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="57"/>
+      <c r="I34" s="9">
+        <f t="shared" si="66"/>
         <v>0.29324894514767957</v>
       </c>
-      <c r="J34" s="10">
-        <f t="shared" si="57"/>
+      <c r="J34" s="9">
+        <f t="shared" si="66"/>
         <v>0.25229357798165164</v>
       </c>
-      <c r="K34" s="10">
-        <f t="shared" si="57"/>
+      <c r="K34" s="9">
+        <f t="shared" si="66"/>
         <v>0.26421404682274297</v>
       </c>
-      <c r="L34" s="10">
-        <f t="shared" si="57"/>
+      <c r="L34" s="9">
+        <f t="shared" si="66"/>
         <v>0.29032258064516153</v>
       </c>
-      <c r="M34" s="10">
-        <f t="shared" si="57"/>
+      <c r="M34" s="9">
+        <f t="shared" si="66"/>
         <v>-8.8334133461353839E-2</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="9">
         <f>N22/N20</f>
         <v>0.18775181305398864</v>
       </c>
-      <c r="O34" s="10">
-        <f t="shared" ref="O34:R34" si="58">O22/O20</f>
+      <c r="O34" s="9">
+        <f t="shared" ref="O34:R34" si="67">O22/O20</f>
+        <v>0.24561403508771912</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="67"/>
         <v>0.2</v>
       </c>
-      <c r="P34" s="10">
-        <f t="shared" si="58"/>
+      <c r="Q34" s="9">
+        <f t="shared" si="67"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="67"/>
         <v>0.2</v>
       </c>
-      <c r="Q34" s="10">
-        <f t="shared" si="58"/>
-        <v>0.2</v>
-      </c>
-      <c r="R34" s="10">
-        <f t="shared" si="58"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="Y34" s="10">
+      <c r="Y34" s="9">
         <f>Y22/Y20</f>
         <v>0.30711297071129745</v>
       </c>
-      <c r="Z34" s="10">
+      <c r="Z34" s="9">
         <f>Z22/Z20</f>
         <v>-40.562500000008072</v>
       </c>
-      <c r="AA34" s="10">
-        <f t="shared" ref="AA34:AK34" si="59">AA22/AA20</f>
-        <v>0.19999999999999987</v>
-      </c>
-      <c r="AB34" s="10">
-        <f t="shared" si="59"/>
+      <c r="AA34" s="9">
+        <f t="shared" ref="AA34:AK34" si="68">AA22/AA20</f>
+        <v>0.20239751808927403</v>
+      </c>
+      <c r="AB34" s="9">
+        <f t="shared" si="68"/>
+        <v>0.18</v>
+      </c>
+      <c r="AC34" s="9">
+        <f t="shared" si="68"/>
+        <v>0.18</v>
+      </c>
+      <c r="AD34" s="9">
+        <f t="shared" si="68"/>
+        <v>0.18</v>
+      </c>
+      <c r="AE34" s="9">
+        <f t="shared" si="68"/>
         <v>0.17999999999999997</v>
       </c>
-      <c r="AC34" s="10">
-        <f t="shared" si="59"/>
+      <c r="AF34" s="9">
+        <f t="shared" si="68"/>
         <v>0.18</v>
       </c>
-      <c r="AD34" s="10">
-        <f t="shared" si="59"/>
+      <c r="AG34" s="9">
+        <f t="shared" si="68"/>
         <v>0.18</v>
       </c>
-      <c r="AE34" s="10">
-        <f t="shared" si="59"/>
+      <c r="AH34" s="9">
+        <f t="shared" si="68"/>
         <v>0.18</v>
       </c>
-      <c r="AF34" s="10">
-        <f t="shared" si="59"/>
+      <c r="AI34" s="9">
+        <f t="shared" si="68"/>
         <v>0.18</v>
       </c>
-      <c r="AG34" s="10">
-        <f t="shared" si="59"/>
+      <c r="AJ34" s="9">
+        <f t="shared" si="68"/>
         <v>0.18</v>
       </c>
-      <c r="AH34" s="10">
-        <f t="shared" si="59"/>
-        <v>0.18</v>
-      </c>
-      <c r="AI34" s="10">
-        <f t="shared" si="59"/>
-        <v>0.18</v>
-      </c>
-      <c r="AJ34" s="10">
-        <f t="shared" si="59"/>
-        <v>0.18</v>
-      </c>
-      <c r="AK34" s="10">
-        <f t="shared" si="59"/>
+      <c r="AK34" s="9">
+        <f t="shared" si="68"/>
         <v>0.18</v>
       </c>
       <c r="AN34" t="s">
@@ -4437,128 +4433,128 @@
       </c>
       <c r="AO34" s="4">
         <f>AO33/AK24</f>
-        <v>73.883904859629823</v>
+        <v>53.102865294280683</v>
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="10">
-        <f t="shared" ref="G35:N35" si="60">G23/G3</f>
+      <c r="G35" s="9">
+        <f t="shared" ref="G35:M35" si="69">G23/G3</f>
         <v>2.7056672760511855E-2</v>
       </c>
-      <c r="H35" s="10">
-        <f t="shared" si="60"/>
+      <c r="H35" s="9">
+        <f t="shared" si="69"/>
         <v>3.9403453689167936E-2</v>
       </c>
-      <c r="I35" s="10">
-        <f t="shared" si="60"/>
+      <c r="I35" s="9">
+        <f t="shared" si="69"/>
         <v>4.8267693218833237E-2</v>
       </c>
-      <c r="J35" s="10">
-        <f t="shared" si="60"/>
+      <c r="J35" s="9">
+        <f t="shared" si="69"/>
         <v>1.9421604763254854E-2</v>
       </c>
-      <c r="K35" s="10">
-        <f t="shared" si="60"/>
+      <c r="K35" s="9">
+        <f t="shared" si="69"/>
         <v>2.9120723777212261E-2</v>
       </c>
-      <c r="L35" s="10">
-        <f t="shared" si="60"/>
+      <c r="L35" s="9">
+        <f t="shared" si="69"/>
         <v>4.740024183796851E-2</v>
       </c>
-      <c r="M35" s="10">
-        <f t="shared" si="60"/>
+      <c r="M35" s="9">
+        <f t="shared" si="69"/>
         <v>5.9172899252089829E-2</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="9">
         <f>N23/N3</f>
         <v>9.6505073280721609E-2</v>
       </c>
-      <c r="O35" s="10">
-        <f t="shared" ref="O35:R35" si="61">O23/O3</f>
-        <v>4.891746668781366E-2</v>
-      </c>
-      <c r="P35" s="10">
-        <f t="shared" si="61"/>
-        <v>5.7333410441091422E-2</v>
-      </c>
-      <c r="Q35" s="10">
-        <f t="shared" si="61"/>
-        <v>6.9984978672124568E-2</v>
-      </c>
-      <c r="R35" s="10">
-        <f t="shared" si="61"/>
-        <v>6.7116602127346686E-2</v>
-      </c>
-      <c r="Y35" s="10">
+      <c r="O35" s="9">
+        <f t="shared" ref="O35:R35" si="70">O23/O3</f>
+        <v>1.9686431686903226E-2</v>
+      </c>
+      <c r="P35" s="9">
+        <f t="shared" si="70"/>
+        <v>3.5394500814888825E-2</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="70"/>
+        <v>5.0029547236940267E-2</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" si="70"/>
+        <v>4.6661722464585081E-2</v>
+      </c>
+      <c r="Y35" s="9">
         <f>Y23/Y3</f>
         <v>3.3608858390517714E-2</v>
       </c>
-      <c r="Z35" s="10">
+      <c r="Z35" s="9">
         <f>Z23/Z3</f>
         <v>5.9809043415600879E-2</v>
       </c>
-      <c r="AA35" s="10">
-        <f t="shared" ref="AA35:AK35" si="62">AA23/AA3</f>
-        <v>6.1420298231287543E-2</v>
-      </c>
-      <c r="AB35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.11583798508306949</v>
-      </c>
-      <c r="AC35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.12745373309468816</v>
-      </c>
-      <c r="AD35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.13541060880805703</v>
-      </c>
-      <c r="AE35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.14333858767375571</v>
-      </c>
-      <c r="AF35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.14454232903596803</v>
-      </c>
-      <c r="AG35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.14572579748361889</v>
-      </c>
-      <c r="AH35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.14690136970394843</v>
-      </c>
-      <c r="AI35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.14806919214105879</v>
-      </c>
-      <c r="AJ35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.14922941117224933</v>
-      </c>
-      <c r="AK35" s="10">
-        <f t="shared" si="62"/>
-        <v>0.15038217313497551</v>
+      <c r="AA35" s="9">
+        <f t="shared" ref="AA35:AK35" si="71">AA23/AA3</f>
+        <v>3.8879664060357359E-2</v>
+      </c>
+      <c r="AB35" s="9">
+        <f t="shared" si="71"/>
+        <v>8.3588814140222178E-2</v>
+      </c>
+      <c r="AC35" s="9">
+        <f t="shared" si="71"/>
+        <v>9.431591735960719E-2</v>
+      </c>
+      <c r="AD35" s="9">
+        <f t="shared" si="71"/>
+        <v>0.10135215071348183</v>
+      </c>
+      <c r="AE35" s="9">
+        <f t="shared" si="71"/>
+        <v>0.10829038231269533</v>
+      </c>
+      <c r="AF35" s="9">
+        <f t="shared" si="71"/>
+        <v>0.11513663085682041</v>
+      </c>
+      <c r="AG35" s="9">
+        <f t="shared" si="71"/>
+        <v>0.1231306890829249</v>
+      </c>
+      <c r="AH35" s="9">
+        <f t="shared" si="71"/>
+        <v>0.12441652601523259</v>
+      </c>
+      <c r="AI35" s="9">
+        <f t="shared" si="71"/>
+        <v>0.12569430579015534</v>
+      </c>
+      <c r="AJ35" s="9">
+        <f t="shared" si="71"/>
+        <v>0.1269641925877904</v>
+      </c>
+      <c r="AK35" s="9">
+        <f t="shared" si="71"/>
+        <v>0.12822635066328816</v>
       </c>
       <c r="AN35" t="s">
         <v>62</v>
       </c>
       <c r="AO35" s="4">
         <f>Main!D3</f>
-        <v>73.5</v>
+        <v>82.36</v>
       </c>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AN36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AO36" s="11">
+      <c r="AO36" s="10">
         <f>AO34/AO35-1</f>
-        <v>5.2231953691133093E-3</v>
+        <v>-0.35523475844729624</v>
       </c>
     </row>
     <row r="37" spans="2:41" x14ac:dyDescent="0.3">
